--- a/database/industries/urea/kermasha/product/monthly.xlsx
+++ b/database/industries/urea/kermasha/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\kermasha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\kermasha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B77E0-DECF-403F-99E4-1BD1745E83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EDBA1-9B5B-4887-9046-04B1739D54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -157,7 +154,7 @@
     <t>ماه 9 منتهی به 1400/09</t>
   </si>
   <si>
-    <t>ماه 10 منتهی به 1400/10</t>
+    <t>ماه 10 منتهی به 1400/11</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1400/11</t>
@@ -187,10 +184,16 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>اوره</t>
   </si>
   <si>
     <t>تن</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>آمونیاک</t>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>سایر فروش های اوره</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>فروش اوره</t>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1400/10</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1258,7 +1263,7 @@
         <v>43</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AS8" s="6" t="s">
         <v>45</v>
@@ -1412,220 +1417,220 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>50257</v>
+        <v>58375</v>
       </c>
       <c r="F11" s="11">
-        <v>58375</v>
+        <v>58189</v>
       </c>
       <c r="G11" s="11">
-        <v>58189</v>
+        <v>53034</v>
       </c>
       <c r="H11" s="11">
-        <v>53034</v>
+        <v>59605</v>
       </c>
       <c r="I11" s="11">
-        <v>59605</v>
+        <v>55846</v>
       </c>
       <c r="J11" s="11">
-        <v>55846</v>
+        <v>47135</v>
       </c>
       <c r="K11" s="11">
-        <v>47135</v>
+        <v>53926</v>
       </c>
       <c r="L11" s="11">
-        <v>53926</v>
+        <v>58519</v>
       </c>
       <c r="M11" s="11">
-        <v>58519</v>
+        <v>63927</v>
       </c>
       <c r="N11" s="11">
-        <v>63927</v>
+        <v>35437</v>
       </c>
       <c r="O11" s="11">
-        <v>35437</v>
+        <v>63109</v>
       </c>
       <c r="P11" s="11">
-        <v>63109</v>
+        <v>62848</v>
       </c>
       <c r="Q11" s="11">
-        <v>62848</v>
+        <v>61680</v>
       </c>
       <c r="R11" s="11">
-        <v>61680</v>
+        <v>55335</v>
       </c>
       <c r="S11" s="11">
-        <v>55335</v>
+        <v>47158</v>
       </c>
       <c r="T11" s="11">
-        <v>47158</v>
+        <v>39355</v>
       </c>
       <c r="U11" s="11">
-        <v>39355</v>
+        <v>10909</v>
       </c>
       <c r="V11" s="11">
-        <v>10909</v>
+        <v>55912</v>
       </c>
       <c r="W11" s="11">
-        <v>55912</v>
+        <v>54184</v>
       </c>
       <c r="X11" s="11">
-        <v>54184</v>
+        <v>62586</v>
       </c>
       <c r="Y11" s="11">
-        <v>62586</v>
+        <v>63483</v>
       </c>
       <c r="Z11" s="11">
-        <v>63483</v>
+        <v>63335</v>
       </c>
       <c r="AA11" s="11">
-        <v>63335</v>
+        <v>63502</v>
       </c>
       <c r="AB11" s="11">
-        <v>63502</v>
+        <v>63454</v>
       </c>
       <c r="AC11" s="11">
-        <v>63454</v>
+        <v>62027</v>
       </c>
       <c r="AD11" s="11">
-        <v>62027</v>
+        <v>61492</v>
       </c>
       <c r="AE11" s="11">
-        <v>61492</v>
+        <v>60794</v>
       </c>
       <c r="AF11" s="11">
-        <v>60794</v>
+        <v>12332</v>
       </c>
       <c r="AG11" s="11">
-        <v>12332</v>
+        <v>51999</v>
       </c>
       <c r="AH11" s="11">
-        <v>51999</v>
+        <v>62086</v>
       </c>
       <c r="AI11" s="11">
-        <v>62086</v>
+        <v>63660</v>
       </c>
       <c r="AJ11" s="11">
-        <v>63660</v>
+        <v>63814</v>
       </c>
       <c r="AK11" s="11">
-        <v>63814</v>
+        <v>63630</v>
       </c>
       <c r="AL11" s="11">
-        <v>63630</v>
+        <v>62584</v>
       </c>
       <c r="AM11" s="11">
-        <v>62584</v>
+        <v>60362</v>
       </c>
       <c r="AN11" s="11">
-        <v>60362</v>
+        <v>63629</v>
       </c>
       <c r="AO11" s="11">
-        <v>63629</v>
+        <v>61510</v>
       </c>
       <c r="AP11" s="11">
-        <v>61510</v>
+        <v>59816</v>
       </c>
       <c r="AQ11" s="11">
-        <v>59816</v>
+        <v>57748</v>
       </c>
       <c r="AR11" s="11">
-        <v>57748</v>
+        <v>7180</v>
       </c>
       <c r="AS11" s="11">
-        <v>50096</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
-        <v>7180</v>
-      </c>
-      <c r="AU11" s="11">
         <v>56986</v>
       </c>
-      <c r="AV11" s="11">
-        <v>63052</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>63444</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>63398</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>62459</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>63085</v>
+      <c r="AU11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BA11" s="11">
-        <v>50585</v>
+        <v>58636</v>
       </c>
       <c r="BB11" s="11">
-        <v>58636</v>
+        <v>59732</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>28805</v>
+        <v>34107</v>
       </c>
       <c r="F12" s="13">
-        <v>34107</v>
+        <v>33532</v>
       </c>
       <c r="G12" s="13">
-        <v>33532</v>
+        <v>30540</v>
       </c>
       <c r="H12" s="13">
-        <v>30540</v>
+        <v>33425</v>
       </c>
       <c r="I12" s="13">
-        <v>33425</v>
+        <v>31420</v>
       </c>
       <c r="J12" s="13">
-        <v>31420</v>
+        <v>27250</v>
       </c>
       <c r="K12" s="13">
-        <v>27250</v>
+        <v>30365</v>
       </c>
       <c r="L12" s="13">
-        <v>30365</v>
+        <v>32936</v>
       </c>
       <c r="M12" s="13">
-        <v>32936</v>
+        <v>36183</v>
       </c>
       <c r="N12" s="13">
-        <v>36183</v>
+        <v>25448</v>
       </c>
       <c r="O12" s="13">
-        <v>25448</v>
+        <v>35656</v>
       </c>
       <c r="P12" s="13">
-        <v>35656</v>
+        <v>36150</v>
       </c>
       <c r="Q12" s="13">
-        <v>36150</v>
+        <v>34393</v>
       </c>
       <c r="R12" s="13">
-        <v>34393</v>
+        <v>31433</v>
       </c>
       <c r="S12" s="13">
-        <v>31433</v>
+        <v>26318</v>
       </c>
       <c r="T12" s="13">
-        <v>26318</v>
+        <v>22451</v>
       </c>
       <c r="U12" s="13">
-        <v>22451</v>
+        <v>6030</v>
       </c>
       <c r="V12" s="13">
-        <v>6030</v>
+        <v>32332</v>
       </c>
       <c r="W12" s="13">
-        <v>32332</v>
+        <v>0</v>
       </c>
       <c r="X12" s="13">
         <v>0</v>
@@ -1688,42 +1693,42 @@
         <v>0</v>
       </c>
       <c r="AR12" s="13">
-        <v>0</v>
+        <v>351737</v>
       </c>
       <c r="AS12" s="13">
         <v>0</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>36701</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>36972</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>37038</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>36849</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>36394</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>32156</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>34537</v>
+        <v>32944</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB12" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>56</v>
@@ -1882,68 +1887,68 @@
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -2048,151 +2053,151 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>63052</v>
       </c>
       <c r="AV15" s="11">
-        <v>0</v>
+        <v>63444</v>
       </c>
       <c r="AW15" s="11">
-        <v>-63052</v>
+        <v>63398</v>
       </c>
       <c r="AX15" s="11">
-        <v>-126496</v>
+        <v>62459</v>
       </c>
       <c r="AY15" s="11">
-        <v>-189894</v>
+        <v>63085</v>
       </c>
       <c r="AZ15" s="11">
-        <v>-252353</v>
+        <v>50585</v>
       </c>
       <c r="BA15" s="11">
-        <v>0</v>
+        <v>-366023</v>
       </c>
       <c r="BB15" s="11">
         <v>0</v>
@@ -2207,154 +2212,154 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>36701</v>
       </c>
       <c r="AV16" s="13">
-        <v>0</v>
+        <v>36972</v>
       </c>
       <c r="AW16" s="13">
-        <v>0</v>
+        <v>37038</v>
       </c>
       <c r="AX16" s="13">
-        <v>0</v>
+        <v>36849</v>
       </c>
       <c r="AY16" s="13">
-        <v>0</v>
+        <v>36394</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>32156</v>
       </c>
       <c r="BA16" s="13">
-        <v>0</v>
+        <v>34537</v>
       </c>
       <c r="BB16" s="13">
-        <v>0</v>
+        <v>34132</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2421,70 +2426,70 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>0</v>
       </c>
       <c r="AA18" s="17">
         <v>0</v>
@@ -2578,154 +2583,154 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19">
-        <v>79062</v>
+        <v>92482</v>
       </c>
       <c r="F19" s="19">
-        <v>92482</v>
+        <v>91721</v>
       </c>
       <c r="G19" s="19">
-        <v>91721</v>
+        <v>83574</v>
       </c>
       <c r="H19" s="19">
-        <v>83574</v>
+        <v>93030</v>
       </c>
       <c r="I19" s="19">
-        <v>93030</v>
+        <v>87266</v>
       </c>
       <c r="J19" s="19">
-        <v>87266</v>
+        <v>74385</v>
       </c>
       <c r="K19" s="19">
-        <v>74385</v>
+        <v>84291</v>
       </c>
       <c r="L19" s="19">
-        <v>84291</v>
+        <v>91455</v>
       </c>
       <c r="M19" s="19">
-        <v>91455</v>
+        <v>100110</v>
       </c>
       <c r="N19" s="19">
-        <v>100110</v>
+        <v>60885</v>
       </c>
       <c r="O19" s="19">
-        <v>60885</v>
+        <v>98765</v>
       </c>
       <c r="P19" s="19">
-        <v>98765</v>
+        <v>98998</v>
       </c>
       <c r="Q19" s="19">
-        <v>98998</v>
+        <v>96073</v>
       </c>
       <c r="R19" s="19">
-        <v>96073</v>
+        <v>86768</v>
       </c>
       <c r="S19" s="19">
-        <v>86768</v>
+        <v>73476</v>
       </c>
       <c r="T19" s="19">
-        <v>73476</v>
+        <v>61806</v>
       </c>
       <c r="U19" s="19">
-        <v>61806</v>
+        <v>16939</v>
       </c>
       <c r="V19" s="19">
-        <v>16939</v>
+        <v>88244</v>
       </c>
       <c r="W19" s="19">
-        <v>88244</v>
+        <v>54184</v>
       </c>
       <c r="X19" s="19">
-        <v>54184</v>
+        <v>62586</v>
       </c>
       <c r="Y19" s="19">
-        <v>62586</v>
+        <v>63483</v>
       </c>
       <c r="Z19" s="19">
-        <v>63483</v>
+        <v>63335</v>
       </c>
       <c r="AA19" s="19">
-        <v>63335</v>
+        <v>63502</v>
       </c>
       <c r="AB19" s="19">
-        <v>63502</v>
+        <v>63454</v>
       </c>
       <c r="AC19" s="19">
-        <v>63454</v>
+        <v>62027</v>
       </c>
       <c r="AD19" s="19">
-        <v>62027</v>
+        <v>61492</v>
       </c>
       <c r="AE19" s="19">
-        <v>61492</v>
+        <v>60794</v>
       </c>
       <c r="AF19" s="19">
-        <v>60794</v>
+        <v>12332</v>
       </c>
       <c r="AG19" s="19">
-        <v>12332</v>
+        <v>51999</v>
       </c>
       <c r="AH19" s="19">
-        <v>51999</v>
+        <v>62086</v>
       </c>
       <c r="AI19" s="19">
-        <v>62086</v>
+        <v>63660</v>
       </c>
       <c r="AJ19" s="19">
-        <v>63660</v>
+        <v>63814</v>
       </c>
       <c r="AK19" s="19">
-        <v>63814</v>
+        <v>63630</v>
       </c>
       <c r="AL19" s="19">
-        <v>63630</v>
+        <v>62584</v>
       </c>
       <c r="AM19" s="19">
-        <v>62584</v>
+        <v>60362</v>
       </c>
       <c r="AN19" s="19">
-        <v>60362</v>
+        <v>63629</v>
       </c>
       <c r="AO19" s="19">
-        <v>63629</v>
+        <v>61510</v>
       </c>
       <c r="AP19" s="19">
-        <v>61510</v>
+        <v>59816</v>
       </c>
       <c r="AQ19" s="19">
-        <v>59816</v>
+        <v>57748</v>
       </c>
       <c r="AR19" s="19">
-        <v>57748</v>
+        <v>358917</v>
       </c>
       <c r="AS19" s="19">
-        <v>50096</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="19">
-        <v>7180</v>
+        <v>89930</v>
       </c>
       <c r="AU19" s="19">
-        <v>56986</v>
+        <v>99753</v>
       </c>
       <c r="AV19" s="19">
-        <v>99753</v>
+        <v>100416</v>
       </c>
       <c r="AW19" s="19">
-        <v>37364</v>
+        <v>100436</v>
       </c>
       <c r="AX19" s="19">
-        <v>-26060</v>
+        <v>99308</v>
       </c>
       <c r="AY19" s="19">
-        <v>-90586</v>
+        <v>99479</v>
       </c>
       <c r="AZ19" s="19">
-        <v>-152874</v>
+        <v>82741</v>
       </c>
       <c r="BA19" s="19">
-        <v>82741</v>
+        <v>-272850</v>
       </c>
       <c r="BB19" s="19">
-        <v>93173</v>
+        <v>93864</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3225,97 +3230,97 @@
         <v>0</v>
       </c>
       <c r="W26" s="11">
-        <v>0</v>
+        <v>36985</v>
       </c>
       <c r="X26" s="11">
-        <v>36985</v>
+        <v>6700</v>
       </c>
       <c r="Y26" s="11">
-        <v>6700</v>
+        <v>34344</v>
       </c>
       <c r="Z26" s="11">
-        <v>34344</v>
+        <v>3402</v>
       </c>
       <c r="AA26" s="11">
-        <v>3402</v>
+        <v>11250</v>
       </c>
       <c r="AB26" s="11">
-        <v>11250</v>
+        <v>87380</v>
       </c>
       <c r="AC26" s="11">
-        <v>87380</v>
+        <v>10169</v>
       </c>
       <c r="AD26" s="11">
-        <v>10169</v>
+        <v>49000</v>
       </c>
       <c r="AE26" s="11">
-        <v>49000</v>
+        <v>14198</v>
       </c>
       <c r="AF26" s="11">
-        <v>14198</v>
+        <v>59206</v>
       </c>
       <c r="AG26" s="11">
-        <v>59206</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AI26" s="11">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ26" s="11">
-        <v>400</v>
+        <v>21799</v>
       </c>
       <c r="AK26" s="11">
-        <v>21799</v>
+        <v>68243</v>
       </c>
       <c r="AL26" s="11">
-        <v>68243</v>
+        <v>36048</v>
       </c>
       <c r="AM26" s="11">
-        <v>36048</v>
+        <v>20452</v>
       </c>
       <c r="AN26" s="11">
-        <v>20452</v>
+        <v>36449</v>
       </c>
       <c r="AO26" s="11">
-        <v>36449</v>
+        <v>28290</v>
       </c>
       <c r="AP26" s="11">
-        <v>28290</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="11">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="AR26" s="11">
-        <v>746</v>
+        <v>3124</v>
       </c>
       <c r="AS26" s="11">
-        <v>24987</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="11">
-        <v>3124</v>
-      </c>
-      <c r="AU26" s="11">
         <v>126177</v>
       </c>
-      <c r="AV26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="11">
-        <v>0</v>
+      <c r="AU26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BA26" s="11">
-        <v>0</v>
+        <v>-158432</v>
       </c>
       <c r="BB26" s="11">
         <v>0</v>
@@ -3323,47 +3328,47 @@
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="F27" s="13">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G27" s="13">
-        <v>50</v>
+        <v>476</v>
       </c>
       <c r="H27" s="13">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="I27" s="13">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="J27" s="13">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="K27" s="13">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="L27" s="13">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="M27" s="13">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="N27" s="13">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="O27" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P27" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="13">
         <v>0</v>
@@ -3390,28 +3395,28 @@
         <v>0</v>
       </c>
       <c r="Y27" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z27" s="13">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AA27" s="13">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="13">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AC27" s="13">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="13">
         <v>0</v>
       </c>
       <c r="AE27" s="13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AF27" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="13">
         <v>0</v>
@@ -3423,379 +3428,379 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="13">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AK27" s="13">
         <v>500</v>
       </c>
       <c r="AL27" s="13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="13">
         <v>0</v>
       </c>
       <c r="AN27" s="13">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AO27" s="13">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="13">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="AQ27" s="13">
-        <v>555</v>
+        <v>266</v>
       </c>
       <c r="AR27" s="13">
-        <v>266</v>
+        <v>2054</v>
       </c>
       <c r="AS27" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="13">
-        <v>100</v>
-      </c>
-      <c r="AV27" s="13">
-        <v>21</v>
-      </c>
-      <c r="AW27" s="13">
-        <v>24</v>
-      </c>
-      <c r="AX27" s="13">
-        <v>418</v>
-      </c>
-      <c r="AY27" s="13">
-        <v>81</v>
-      </c>
-      <c r="AZ27" s="13">
-        <v>941</v>
-      </c>
-      <c r="BA27" s="13">
-        <v>803</v>
-      </c>
-      <c r="BB27" s="13">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="AU27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB27" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>14811</v>
+        <v>15846</v>
       </c>
       <c r="F28" s="11">
-        <v>15846</v>
+        <v>18576</v>
       </c>
       <c r="G28" s="11">
-        <v>18576</v>
+        <v>26410</v>
       </c>
       <c r="H28" s="11">
-        <v>26410</v>
+        <v>22756</v>
       </c>
       <c r="I28" s="11">
-        <v>22756</v>
+        <v>22454</v>
       </c>
       <c r="J28" s="11">
-        <v>22454</v>
+        <v>24341</v>
       </c>
       <c r="K28" s="11">
-        <v>24341</v>
+        <v>19186</v>
       </c>
       <c r="L28" s="11">
-        <v>19186</v>
+        <v>19277</v>
       </c>
       <c r="M28" s="11">
-        <v>19277</v>
+        <v>18575</v>
       </c>
       <c r="N28" s="11">
-        <v>18575</v>
+        <v>2122</v>
       </c>
       <c r="O28" s="11">
-        <v>2122</v>
+        <v>19326</v>
       </c>
       <c r="P28" s="11">
-        <v>19326</v>
+        <v>25016</v>
       </c>
       <c r="Q28" s="11">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="R28" s="11">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="S28" s="11">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="T28" s="11">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="U28" s="11">
-        <v>12794</v>
+        <v>2706</v>
       </c>
       <c r="V28" s="11">
-        <v>2706</v>
+        <v>26158</v>
       </c>
       <c r="W28" s="11">
-        <v>26158</v>
+        <v>16293</v>
       </c>
       <c r="X28" s="11">
-        <v>16293</v>
+        <v>30915</v>
       </c>
       <c r="Y28" s="11">
-        <v>30915</v>
+        <v>15918</v>
       </c>
       <c r="Z28" s="11">
-        <v>15918</v>
+        <v>12199</v>
       </c>
       <c r="AA28" s="11">
-        <v>12199</v>
+        <v>9092</v>
       </c>
       <c r="AB28" s="11">
-        <v>9092</v>
+        <v>22124</v>
       </c>
       <c r="AC28" s="11">
-        <v>22124</v>
+        <v>19472</v>
       </c>
       <c r="AD28" s="11">
-        <v>19472</v>
+        <v>19137</v>
       </c>
       <c r="AE28" s="11">
-        <v>19137</v>
+        <v>15241</v>
       </c>
       <c r="AF28" s="11">
-        <v>15241</v>
+        <v>15493</v>
       </c>
       <c r="AG28" s="11">
-        <v>15493</v>
+        <v>29129</v>
       </c>
       <c r="AH28" s="11">
-        <v>29129</v>
+        <v>29950</v>
       </c>
       <c r="AI28" s="11">
-        <v>29950</v>
+        <v>26525</v>
       </c>
       <c r="AJ28" s="11">
-        <v>26525</v>
+        <v>24446</v>
       </c>
       <c r="AK28" s="11">
-        <v>24446</v>
+        <v>12368</v>
       </c>
       <c r="AL28" s="11">
-        <v>12368</v>
+        <v>18990</v>
       </c>
       <c r="AM28" s="11">
-        <v>18990</v>
+        <v>16785</v>
       </c>
       <c r="AN28" s="11">
-        <v>16785</v>
+        <v>19663</v>
       </c>
       <c r="AO28" s="11">
-        <v>19663</v>
+        <v>23554</v>
       </c>
       <c r="AP28" s="11">
-        <v>23554</v>
+        <v>19088</v>
       </c>
       <c r="AQ28" s="11">
-        <v>19088</v>
+        <v>21273</v>
       </c>
       <c r="AR28" s="11">
-        <v>21273</v>
+        <v>6364</v>
       </c>
       <c r="AS28" s="11">
-        <v>29437</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="11">
-        <v>6364</v>
+        <v>16972</v>
       </c>
       <c r="AU28" s="11">
-        <v>16972</v>
+        <v>15820</v>
       </c>
       <c r="AV28" s="11">
-        <v>15820</v>
+        <v>17628</v>
       </c>
       <c r="AW28" s="11">
-        <v>17628</v>
+        <v>14250</v>
       </c>
       <c r="AX28" s="11">
-        <v>14250</v>
+        <v>10577</v>
       </c>
       <c r="AY28" s="11">
-        <v>10577</v>
+        <v>23340</v>
       </c>
       <c r="AZ28" s="11">
-        <v>23340</v>
+        <v>15629</v>
       </c>
       <c r="BA28" s="11">
-        <v>15629</v>
+        <v>15026</v>
       </c>
       <c r="BB28" s="11">
-        <v>15026</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="W29" s="13">
+        <v>350</v>
       </c>
       <c r="X29" s="13">
-        <v>350</v>
+        <v>1891</v>
       </c>
       <c r="Y29" s="13">
-        <v>1891</v>
+        <v>11336</v>
       </c>
       <c r="Z29" s="13">
-        <v>11336</v>
+        <v>6175</v>
       </c>
       <c r="AA29" s="13">
-        <v>6175</v>
+        <v>9878</v>
       </c>
       <c r="AB29" s="13">
-        <v>9878</v>
+        <v>12690</v>
       </c>
       <c r="AC29" s="13">
-        <v>12690</v>
+        <v>8774</v>
       </c>
       <c r="AD29" s="13">
-        <v>8774</v>
+        <v>7947</v>
       </c>
       <c r="AE29" s="13">
-        <v>7947</v>
+        <v>11927</v>
       </c>
       <c r="AF29" s="13">
-        <v>11927</v>
+        <v>6023</v>
       </c>
       <c r="AG29" s="13">
-        <v>6023</v>
+        <v>5502</v>
       </c>
       <c r="AH29" s="13">
-        <v>5502</v>
+        <v>10527</v>
       </c>
       <c r="AI29" s="13">
-        <v>10527</v>
+        <v>3099</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3099</v>
+        <v>10817</v>
       </c>
       <c r="AK29" s="13">
-        <v>10817</v>
+        <v>9682</v>
       </c>
       <c r="AL29" s="13">
-        <v>9682</v>
+        <v>7103</v>
       </c>
       <c r="AM29" s="13">
-        <v>7103</v>
+        <v>2575</v>
       </c>
       <c r="AN29" s="13">
-        <v>2575</v>
+        <v>5951</v>
       </c>
       <c r="AO29" s="13">
-        <v>5951</v>
+        <v>2127</v>
       </c>
       <c r="AP29" s="13">
-        <v>2127</v>
+        <v>5700</v>
       </c>
       <c r="AQ29" s="13">
-        <v>5700</v>
+        <v>9991</v>
       </c>
       <c r="AR29" s="13">
-        <v>9991</v>
+        <v>4475</v>
       </c>
       <c r="AS29" s="13">
-        <v>5315</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="13">
-        <v>4475</v>
+        <v>3401</v>
       </c>
       <c r="AU29" s="13">
-        <v>3401</v>
+        <v>450</v>
       </c>
       <c r="AV29" s="13">
-        <v>450</v>
+        <v>2802</v>
       </c>
       <c r="AW29" s="13">
-        <v>2802</v>
+        <v>8533</v>
       </c>
       <c r="AX29" s="13">
-        <v>8533</v>
+        <v>5534</v>
       </c>
       <c r="AY29" s="13">
-        <v>5534</v>
+        <v>2621</v>
       </c>
       <c r="AZ29" s="13">
-        <v>2621</v>
+        <v>5940</v>
       </c>
       <c r="BA29" s="13">
-        <v>5940</v>
+        <v>593</v>
       </c>
       <c r="BB29" s="13">
-        <v>593</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3807,154 +3812,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU30" s="11">
+        <v>9484</v>
       </c>
       <c r="AV30" s="11">
-        <v>9484</v>
+        <v>31425</v>
       </c>
       <c r="AW30" s="11">
-        <v>40909</v>
+        <v>34050</v>
       </c>
       <c r="AX30" s="11">
-        <v>74959</v>
+        <v>14575</v>
       </c>
       <c r="AY30" s="11">
-        <v>89534</v>
+        <v>19668</v>
       </c>
       <c r="AZ30" s="11">
-        <v>109202</v>
+        <v>49230</v>
       </c>
       <c r="BA30" s="11">
-        <v>49230</v>
+        <v>42704</v>
       </c>
       <c r="BB30" s="11">
-        <v>42704</v>
+        <v>37064</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3966,154 +3971,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU31" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU31" s="13">
+        <v>21</v>
       </c>
       <c r="AV31" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AW31" s="13">
-        <v>160</v>
+        <v>1724</v>
       </c>
       <c r="AX31" s="13">
-        <v>1306</v>
+        <v>275</v>
       </c>
       <c r="AY31" s="13">
-        <v>194</v>
+        <v>1440</v>
       </c>
       <c r="AZ31" s="13">
-        <v>499</v>
+        <v>1691</v>
       </c>
       <c r="BA31" s="13">
-        <v>888</v>
+        <v>116</v>
       </c>
       <c r="BB31" s="13">
-        <v>9</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4180,70 +4185,70 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z33" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>0</v>
       </c>
       <c r="AA33" s="17">
         <v>0</v>
@@ -4394,70 +4399,70 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>0</v>
       </c>
       <c r="AA35" s="17">
         <v>0</v>
@@ -4551,154 +4556,154 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>15160</v>
+        <v>15968</v>
       </c>
       <c r="F36" s="19">
-        <v>15968</v>
+        <v>18626</v>
       </c>
       <c r="G36" s="19">
-        <v>18626</v>
+        <v>26886</v>
       </c>
       <c r="H36" s="19">
-        <v>26886</v>
+        <v>22830</v>
       </c>
       <c r="I36" s="19">
-        <v>22830</v>
+        <v>22683</v>
       </c>
       <c r="J36" s="19">
-        <v>22683</v>
+        <v>24663</v>
       </c>
       <c r="K36" s="19">
-        <v>24663</v>
+        <v>19238</v>
       </c>
       <c r="L36" s="19">
-        <v>19238</v>
+        <v>19371</v>
       </c>
       <c r="M36" s="19">
-        <v>19371</v>
+        <v>18839</v>
       </c>
       <c r="N36" s="19">
-        <v>18839</v>
+        <v>2122</v>
       </c>
       <c r="O36" s="19">
-        <v>2122</v>
+        <v>19446</v>
       </c>
       <c r="P36" s="19">
-        <v>19446</v>
+        <v>25016</v>
       </c>
       <c r="Q36" s="19">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="R36" s="19">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="S36" s="19">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="T36" s="19">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="U36" s="19">
-        <v>12794</v>
+        <v>2706</v>
       </c>
       <c r="V36" s="19">
-        <v>2706</v>
+        <v>26158</v>
       </c>
       <c r="W36" s="19">
-        <v>26158</v>
+        <v>53628</v>
       </c>
       <c r="X36" s="19">
-        <v>53628</v>
+        <v>39506</v>
       </c>
       <c r="Y36" s="19">
-        <v>39506</v>
+        <v>61638</v>
       </c>
       <c r="Z36" s="19">
-        <v>61638</v>
+        <v>21840</v>
       </c>
       <c r="AA36" s="19">
-        <v>21840</v>
+        <v>30220</v>
       </c>
       <c r="AB36" s="19">
-        <v>30220</v>
+        <v>122545</v>
       </c>
       <c r="AC36" s="19">
-        <v>122545</v>
+        <v>38415</v>
       </c>
       <c r="AD36" s="19">
-        <v>38415</v>
+        <v>76084</v>
       </c>
       <c r="AE36" s="19">
-        <v>76084</v>
+        <v>41509</v>
       </c>
       <c r="AF36" s="19">
-        <v>41509</v>
+        <v>80722</v>
       </c>
       <c r="AG36" s="19">
-        <v>80722</v>
+        <v>34631</v>
       </c>
       <c r="AH36" s="19">
-        <v>34631</v>
+        <v>40977</v>
       </c>
       <c r="AI36" s="19">
-        <v>40977</v>
+        <v>30024</v>
       </c>
       <c r="AJ36" s="19">
-        <v>30024</v>
+        <v>57562</v>
       </c>
       <c r="AK36" s="19">
-        <v>57562</v>
+        <v>90793</v>
       </c>
       <c r="AL36" s="19">
-        <v>90793</v>
+        <v>62141</v>
       </c>
       <c r="AM36" s="19">
-        <v>62141</v>
+        <v>39812</v>
       </c>
       <c r="AN36" s="19">
-        <v>39812</v>
+        <v>62633</v>
       </c>
       <c r="AO36" s="19">
-        <v>62633</v>
+        <v>53971</v>
       </c>
       <c r="AP36" s="19">
-        <v>53971</v>
+        <v>25343</v>
       </c>
       <c r="AQ36" s="19">
-        <v>25343</v>
+        <v>32276</v>
       </c>
       <c r="AR36" s="19">
-        <v>32276</v>
+        <v>16017</v>
       </c>
       <c r="AS36" s="19">
-        <v>59760</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="19">
-        <v>13963</v>
+        <v>146692</v>
       </c>
       <c r="AU36" s="19">
-        <v>146650</v>
+        <v>25775</v>
       </c>
       <c r="AV36" s="19">
-        <v>25775</v>
+        <v>52039</v>
       </c>
       <c r="AW36" s="19">
-        <v>61523</v>
+        <v>58557</v>
       </c>
       <c r="AX36" s="19">
-        <v>99466</v>
+        <v>30961</v>
       </c>
       <c r="AY36" s="19">
-        <v>105920</v>
+        <v>47069</v>
       </c>
       <c r="AZ36" s="19">
-        <v>136603</v>
+        <v>72490</v>
       </c>
       <c r="BA36" s="19">
-        <v>72490</v>
+        <v>-99993</v>
       </c>
       <c r="BB36" s="19">
-        <v>58439</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5198,97 +5203,97 @@
         <v>0</v>
       </c>
       <c r="W43" s="11">
-        <v>0</v>
+        <v>1026753</v>
       </c>
       <c r="X43" s="11">
-        <v>1026753</v>
+        <v>194816</v>
       </c>
       <c r="Y43" s="11">
-        <v>194816</v>
+        <v>1058841</v>
       </c>
       <c r="Z43" s="11">
-        <v>1058841</v>
+        <v>110820</v>
       </c>
       <c r="AA43" s="11">
-        <v>110820</v>
+        <v>399920</v>
       </c>
       <c r="AB43" s="11">
-        <v>399920</v>
+        <v>3493521</v>
       </c>
       <c r="AC43" s="11">
-        <v>3493521</v>
+        <v>473935</v>
       </c>
       <c r="AD43" s="11">
-        <v>473935</v>
+        <v>2515143</v>
       </c>
       <c r="AE43" s="11">
-        <v>2515143</v>
+        <v>719636</v>
       </c>
       <c r="AF43" s="11">
-        <v>719636</v>
+        <v>3046219</v>
       </c>
       <c r="AG43" s="11">
-        <v>3046219</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="11">
-        <v>0</v>
+        <v>32591</v>
       </c>
       <c r="AI43" s="11">
-        <v>32591</v>
+        <v>26776</v>
       </c>
       <c r="AJ43" s="11">
-        <v>26776</v>
+        <v>1077370</v>
       </c>
       <c r="AK43" s="11">
-        <v>1077370</v>
+        <v>3890774</v>
       </c>
       <c r="AL43" s="11">
-        <v>3890774</v>
+        <v>2324264</v>
       </c>
       <c r="AM43" s="11">
-        <v>2324264</v>
+        <v>1418003</v>
       </c>
       <c r="AN43" s="11">
-        <v>1418003</v>
+        <v>2865832</v>
       </c>
       <c r="AO43" s="11">
-        <v>2865832</v>
+        <v>2614693</v>
       </c>
       <c r="AP43" s="11">
-        <v>2614693</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="11">
-        <v>0</v>
+        <v>67902</v>
       </c>
       <c r="AR43" s="11">
-        <v>67902</v>
+        <v>461636</v>
       </c>
       <c r="AS43" s="11">
-        <v>4549236</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="11">
-        <v>461636</v>
-      </c>
-      <c r="AU43" s="11">
         <v>18223350</v>
       </c>
-      <c r="AV43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="11">
-        <v>0</v>
+      <c r="AU43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BA43" s="11">
-        <v>0</v>
+        <v>-21628826</v>
       </c>
       <c r="BB43" s="11">
         <v>0</v>
@@ -5296,47 +5301,47 @@
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>3734</v>
+        <v>1561</v>
       </c>
       <c r="F44" s="13">
-        <v>1561</v>
+        <v>604</v>
       </c>
       <c r="G44" s="13">
-        <v>604</v>
+        <v>7601</v>
       </c>
       <c r="H44" s="13">
-        <v>7601</v>
+        <v>1415</v>
       </c>
       <c r="I44" s="13">
-        <v>1415</v>
+        <v>3683</v>
       </c>
       <c r="J44" s="13">
-        <v>3683</v>
+        <v>4228</v>
       </c>
       <c r="K44" s="13">
-        <v>4228</v>
+        <v>671</v>
       </c>
       <c r="L44" s="13">
-        <v>671</v>
+        <v>1157</v>
       </c>
       <c r="M44" s="13">
-        <v>1157</v>
+        <v>3234</v>
       </c>
       <c r="N44" s="13">
-        <v>3234</v>
+        <v>0</v>
       </c>
       <c r="O44" s="13">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="P44" s="13">
-        <v>1538</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="13">
         <v>0</v>
@@ -5363,28 +5368,28 @@
         <v>0</v>
       </c>
       <c r="Y44" s="13">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="Z44" s="13">
-        <v>898</v>
+        <v>1464</v>
       </c>
       <c r="AA44" s="13">
-        <v>1464</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="13">
-        <v>0</v>
+        <v>8901</v>
       </c>
       <c r="AC44" s="13">
-        <v>8901</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="13">
         <v>0</v>
       </c>
       <c r="AE44" s="13">
-        <v>0</v>
+        <v>4265</v>
       </c>
       <c r="AF44" s="13">
-        <v>4265</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="13">
         <v>0</v>
@@ -5396,379 +5401,379 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="13">
-        <v>0</v>
+        <v>23044</v>
       </c>
       <c r="AK44" s="13">
-        <v>23044</v>
+        <v>22763</v>
       </c>
       <c r="AL44" s="13">
-        <v>22763</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="13">
         <v>0</v>
       </c>
       <c r="AN44" s="13">
-        <v>0</v>
+        <v>34788</v>
       </c>
       <c r="AO44" s="13">
-        <v>34788</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="13">
-        <v>0</v>
+        <v>36233</v>
       </c>
       <c r="AQ44" s="13">
-        <v>36233</v>
+        <v>21557</v>
       </c>
       <c r="AR44" s="13">
-        <v>21557</v>
+        <v>133666</v>
       </c>
       <c r="AS44" s="13">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>15303</v>
-      </c>
-      <c r="AV44" s="13">
-        <v>3432</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>3816</v>
-      </c>
-      <c r="AX44" s="13">
-        <v>81348</v>
-      </c>
-      <c r="AY44" s="13">
-        <v>15959</v>
-      </c>
-      <c r="AZ44" s="13">
-        <v>183882</v>
-      </c>
-      <c r="BA44" s="13">
-        <v>164203</v>
-      </c>
-      <c r="BB44" s="13">
-        <v>22621</v>
+        <v>19839</v>
+      </c>
+      <c r="AU44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB44" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>90717</v>
+        <v>97057</v>
       </c>
       <c r="F45" s="11">
-        <v>97057</v>
+        <v>113778</v>
       </c>
       <c r="G45" s="11">
-        <v>113778</v>
+        <v>161761</v>
       </c>
       <c r="H45" s="11">
-        <v>161761</v>
+        <v>139380</v>
       </c>
       <c r="I45" s="11">
-        <v>139380</v>
+        <v>137531</v>
       </c>
       <c r="J45" s="11">
-        <v>137531</v>
+        <v>350559</v>
       </c>
       <c r="K45" s="11">
-        <v>350559</v>
+        <v>308511</v>
       </c>
       <c r="L45" s="11">
-        <v>308511</v>
+        <v>309974</v>
       </c>
       <c r="M45" s="11">
-        <v>309974</v>
+        <v>315589</v>
       </c>
       <c r="N45" s="11">
-        <v>315589</v>
+        <v>36053</v>
       </c>
       <c r="O45" s="11">
-        <v>36053</v>
+        <v>328349</v>
       </c>
       <c r="P45" s="11">
-        <v>328349</v>
+        <v>380193</v>
       </c>
       <c r="Q45" s="11">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="R45" s="11">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="S45" s="11">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="T45" s="11">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="U45" s="11">
-        <v>234795</v>
+        <v>49661</v>
       </c>
       <c r="V45" s="11">
-        <v>49661</v>
+        <v>480052</v>
       </c>
       <c r="W45" s="11">
-        <v>480052</v>
+        <v>362193</v>
       </c>
       <c r="X45" s="11">
-        <v>362193</v>
+        <v>687240</v>
       </c>
       <c r="Y45" s="11">
-        <v>687240</v>
+        <v>353857</v>
       </c>
       <c r="Z45" s="11">
-        <v>353857</v>
+        <v>271184</v>
       </c>
       <c r="AA45" s="11">
-        <v>271184</v>
+        <v>202115</v>
       </c>
       <c r="AB45" s="11">
-        <v>202115</v>
+        <v>491817</v>
       </c>
       <c r="AC45" s="11">
-        <v>491817</v>
+        <v>700992</v>
       </c>
       <c r="AD45" s="11">
-        <v>700992</v>
+        <v>688932</v>
       </c>
       <c r="AE45" s="11">
-        <v>688932</v>
+        <v>548676</v>
       </c>
       <c r="AF45" s="11">
-        <v>548676</v>
+        <v>557748</v>
       </c>
       <c r="AG45" s="11">
-        <v>557748</v>
+        <v>1048644</v>
       </c>
       <c r="AH45" s="11">
-        <v>1048644</v>
+        <v>1078200</v>
       </c>
       <c r="AI45" s="11">
-        <v>1078200</v>
+        <v>1220150</v>
       </c>
       <c r="AJ45" s="11">
-        <v>1220150</v>
+        <v>1124516</v>
       </c>
       <c r="AK45" s="11">
-        <v>1124516</v>
+        <v>568928</v>
       </c>
       <c r="AL45" s="11">
-        <v>568928</v>
+        <v>873540</v>
       </c>
       <c r="AM45" s="11">
-        <v>873540</v>
+        <v>772110</v>
       </c>
       <c r="AN45" s="11">
-        <v>772110</v>
+        <v>905815</v>
       </c>
       <c r="AO45" s="11">
-        <v>905815</v>
+        <v>1608738</v>
       </c>
       <c r="AP45" s="11">
-        <v>1608738</v>
+        <v>1722291</v>
       </c>
       <c r="AQ45" s="11">
-        <v>1722291</v>
+        <v>1919442</v>
       </c>
       <c r="AR45" s="11">
-        <v>1919442</v>
+        <v>574217</v>
       </c>
       <c r="AS45" s="11">
-        <v>2656071</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="11">
-        <v>574217</v>
+        <v>1531367</v>
       </c>
       <c r="AU45" s="11">
-        <v>1531367</v>
+        <v>2295672</v>
       </c>
       <c r="AV45" s="11">
-        <v>2295672</v>
+        <v>1606011</v>
       </c>
       <c r="AW45" s="11">
-        <v>1606011</v>
+        <v>1662248</v>
       </c>
       <c r="AX45" s="11">
-        <v>1662248</v>
+        <v>1233796</v>
       </c>
       <c r="AY45" s="11">
-        <v>1233796</v>
+        <v>2065912</v>
       </c>
       <c r="AZ45" s="11">
-        <v>2065912</v>
+        <v>1697357</v>
       </c>
       <c r="BA45" s="11">
-        <v>1697357</v>
+        <v>1631869</v>
       </c>
       <c r="BB45" s="11">
-        <v>1631869</v>
+        <v>436041</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="W46" s="13">
+        <v>9127</v>
       </c>
       <c r="X46" s="13">
-        <v>9127</v>
+        <v>48676</v>
       </c>
       <c r="Y46" s="13">
-        <v>48676</v>
+        <v>286241</v>
       </c>
       <c r="Z46" s="13">
-        <v>286241</v>
+        <v>162151</v>
       </c>
       <c r="AA46" s="13">
-        <v>162151</v>
+        <v>293764</v>
       </c>
       <c r="AB46" s="13">
-        <v>293764</v>
+        <v>420303</v>
       </c>
       <c r="AC46" s="13">
-        <v>420303</v>
+        <v>337437</v>
       </c>
       <c r="AD46" s="13">
-        <v>337437</v>
+        <v>331879</v>
       </c>
       <c r="AE46" s="13">
-        <v>331879</v>
+        <v>558464</v>
       </c>
       <c r="AF46" s="13">
-        <v>558464</v>
+        <v>284015</v>
       </c>
       <c r="AG46" s="13">
-        <v>284015</v>
+        <v>268893</v>
       </c>
       <c r="AH46" s="13">
-        <v>268893</v>
+        <v>571384</v>
       </c>
       <c r="AI46" s="13">
-        <v>571384</v>
+        <v>150207</v>
       </c>
       <c r="AJ46" s="13">
-        <v>150207</v>
+        <v>593939</v>
       </c>
       <c r="AK46" s="13">
-        <v>593939</v>
+        <v>546193</v>
       </c>
       <c r="AL46" s="13">
-        <v>546193</v>
+        <v>462553</v>
       </c>
       <c r="AM46" s="13">
-        <v>462553</v>
+        <v>201313</v>
       </c>
       <c r="AN46" s="13">
-        <v>201313</v>
+        <v>488421</v>
       </c>
       <c r="AO46" s="13">
-        <v>488421</v>
+        <v>203870</v>
       </c>
       <c r="AP46" s="13">
-        <v>203870</v>
+        <v>703418</v>
       </c>
       <c r="AQ46" s="13">
-        <v>703418</v>
+        <v>1623437</v>
       </c>
       <c r="AR46" s="13">
-        <v>1623437</v>
+        <v>817398</v>
       </c>
       <c r="AS46" s="13">
-        <v>994576</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="13">
-        <v>817398</v>
+        <v>515416</v>
       </c>
       <c r="AU46" s="13">
-        <v>515416</v>
+        <v>69235</v>
       </c>
       <c r="AV46" s="13">
-        <v>69235</v>
+        <v>444408</v>
       </c>
       <c r="AW46" s="13">
-        <v>444408</v>
+        <v>1199981</v>
       </c>
       <c r="AX46" s="13">
-        <v>1199981</v>
+        <v>669400</v>
       </c>
       <c r="AY46" s="13">
-        <v>669400</v>
+        <v>305549</v>
       </c>
       <c r="AZ46" s="13">
-        <v>305549</v>
+        <v>721480</v>
       </c>
       <c r="BA46" s="13">
-        <v>721480</v>
+        <v>82795</v>
       </c>
       <c r="BB46" s="13">
-        <v>82795</v>
+        <v>420185</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5780,154 +5785,154 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU47" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>1269420</v>
       </c>
       <c r="AV47" s="11">
-        <v>1269420</v>
+        <v>4264982</v>
       </c>
       <c r="AW47" s="11">
-        <v>5534402</v>
+        <v>4739842</v>
       </c>
       <c r="AX47" s="11">
-        <v>10274244</v>
+        <v>1960084</v>
       </c>
       <c r="AY47" s="11">
-        <v>12234328</v>
+        <v>2730094</v>
       </c>
       <c r="AZ47" s="11">
-        <v>14964422</v>
+        <v>6664404</v>
       </c>
       <c r="BA47" s="11">
-        <v>6664404</v>
+        <v>6138565</v>
       </c>
       <c r="BB47" s="11">
-        <v>6138565</v>
+        <v>5112159</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5939,154 +5944,154 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU48" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>3432</v>
       </c>
       <c r="AV48" s="13">
-        <v>0</v>
+        <v>28174</v>
       </c>
       <c r="AW48" s="13">
-        <v>24358</v>
+        <v>309256</v>
       </c>
       <c r="AX48" s="13">
-        <v>227908</v>
+        <v>47921</v>
       </c>
       <c r="AY48" s="13">
-        <v>31962</v>
+        <v>278908</v>
       </c>
       <c r="AZ48" s="13">
-        <v>95026</v>
+        <v>337292</v>
       </c>
       <c r="BA48" s="13">
-        <v>173089</v>
+        <v>24489</v>
       </c>
       <c r="BB48" s="13">
-        <v>1868</v>
+        <v>284456</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6155,70 +6160,70 @@
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y50" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z50" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z50" s="17">
+        <v>0</v>
       </c>
       <c r="AA50" s="17">
         <v>0</v>
@@ -6371,70 +6376,70 @@
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y52" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z52" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z52" s="17">
+        <v>0</v>
       </c>
       <c r="AA52" s="17">
         <v>0</v>
@@ -6587,70 +6592,70 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y54" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0</v>
       </c>
       <c r="AA54" s="11">
         <v>0</v>
@@ -6744,154 +6749,154 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>94451</v>
+        <v>98618</v>
       </c>
       <c r="F55" s="19">
-        <v>98618</v>
+        <v>114382</v>
       </c>
       <c r="G55" s="19">
-        <v>114382</v>
+        <v>169362</v>
       </c>
       <c r="H55" s="19">
-        <v>169362</v>
+        <v>140795</v>
       </c>
       <c r="I55" s="19">
-        <v>140795</v>
+        <v>141214</v>
       </c>
       <c r="J55" s="19">
-        <v>141214</v>
+        <v>354787</v>
       </c>
       <c r="K55" s="19">
-        <v>354787</v>
+        <v>309182</v>
       </c>
       <c r="L55" s="19">
-        <v>309182</v>
+        <v>311131</v>
       </c>
       <c r="M55" s="19">
-        <v>311131</v>
+        <v>318823</v>
       </c>
       <c r="N55" s="19">
-        <v>318823</v>
+        <v>36053</v>
       </c>
       <c r="O55" s="19">
-        <v>36053</v>
+        <v>329887</v>
       </c>
       <c r="P55" s="19">
-        <v>329887</v>
+        <v>380193</v>
       </c>
       <c r="Q55" s="19">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="R55" s="19">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="S55" s="19">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="T55" s="19">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="U55" s="19">
-        <v>234795</v>
+        <v>49661</v>
       </c>
       <c r="V55" s="19">
-        <v>49661</v>
+        <v>480052</v>
       </c>
       <c r="W55" s="19">
-        <v>480052</v>
+        <v>1398073</v>
       </c>
       <c r="X55" s="19">
-        <v>1398073</v>
+        <v>930732</v>
       </c>
       <c r="Y55" s="19">
-        <v>930732</v>
+        <v>1699837</v>
       </c>
       <c r="Z55" s="19">
-        <v>1699837</v>
+        <v>545619</v>
       </c>
       <c r="AA55" s="19">
-        <v>545619</v>
+        <v>895799</v>
       </c>
       <c r="AB55" s="19">
-        <v>895799</v>
+        <v>4414542</v>
       </c>
       <c r="AC55" s="19">
-        <v>4414542</v>
+        <v>1512364</v>
       </c>
       <c r="AD55" s="19">
-        <v>1512364</v>
+        <v>3535954</v>
       </c>
       <c r="AE55" s="19">
-        <v>3535954</v>
+        <v>1831041</v>
       </c>
       <c r="AF55" s="19">
-        <v>1831041</v>
+        <v>3887982</v>
       </c>
       <c r="AG55" s="19">
-        <v>3887982</v>
+        <v>1317537</v>
       </c>
       <c r="AH55" s="19">
-        <v>1317537</v>
+        <v>1682175</v>
       </c>
       <c r="AI55" s="19">
-        <v>1682175</v>
+        <v>1397133</v>
       </c>
       <c r="AJ55" s="19">
-        <v>1397133</v>
+        <v>2818869</v>
       </c>
       <c r="AK55" s="19">
-        <v>2818869</v>
+        <v>5028658</v>
       </c>
       <c r="AL55" s="19">
-        <v>5028658</v>
+        <v>3660357</v>
       </c>
       <c r="AM55" s="19">
-        <v>3660357</v>
+        <v>2391426</v>
       </c>
       <c r="AN55" s="19">
-        <v>2391426</v>
+        <v>4294856</v>
       </c>
       <c r="AO55" s="19">
-        <v>4294856</v>
+        <v>4427301</v>
       </c>
       <c r="AP55" s="19">
-        <v>4427301</v>
+        <v>2461942</v>
       </c>
       <c r="AQ55" s="19">
-        <v>2461942</v>
+        <v>3632338</v>
       </c>
       <c r="AR55" s="19">
-        <v>3632338</v>
+        <v>1986917</v>
       </c>
       <c r="AS55" s="19">
-        <v>8201711</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="19">
-        <v>1853251</v>
+        <v>20289972</v>
       </c>
       <c r="AU55" s="19">
-        <v>20285436</v>
+        <v>3637759</v>
       </c>
       <c r="AV55" s="19">
-        <v>3637759</v>
+        <v>6343575</v>
       </c>
       <c r="AW55" s="19">
-        <v>7612995</v>
+        <v>7911327</v>
       </c>
       <c r="AX55" s="19">
-        <v>13445729</v>
+        <v>3911201</v>
       </c>
       <c r="AY55" s="19">
-        <v>14185445</v>
+        <v>5380463</v>
       </c>
       <c r="AZ55" s="19">
-        <v>17614791</v>
+        <v>9420533</v>
       </c>
       <c r="BA55" s="19">
-        <v>9420533</v>
+        <v>-13751108</v>
       </c>
       <c r="BB55" s="19">
-        <v>7877718</v>
+        <v>6252841</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7391,145 +7396,145 @@
         <v>0</v>
       </c>
       <c r="W62" s="11">
-        <v>0</v>
+        <v>27761336</v>
       </c>
       <c r="X62" s="11">
-        <v>27761336</v>
+        <v>29077015</v>
       </c>
       <c r="Y62" s="11">
-        <v>29077015</v>
+        <v>30830451</v>
       </c>
       <c r="Z62" s="11">
-        <v>30830451</v>
+        <v>32574956</v>
       </c>
       <c r="AA62" s="11">
-        <v>32574956</v>
+        <v>35548444</v>
       </c>
       <c r="AB62" s="11">
-        <v>35548444</v>
+        <v>39980785</v>
       </c>
       <c r="AC62" s="11">
-        <v>39980785</v>
+        <v>46605861</v>
       </c>
       <c r="AD62" s="11">
-        <v>46605861</v>
+        <v>51329449</v>
       </c>
       <c r="AE62" s="11">
-        <v>51329449</v>
+        <v>50685730</v>
       </c>
       <c r="AF62" s="11">
-        <v>50685730</v>
-      </c>
-      <c r="AG62" s="11">
         <v>51451187</v>
       </c>
-      <c r="AH62" s="11" t="s">
-        <v>60</v>
+      <c r="AG62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH62" s="11">
+        <v>65182000</v>
       </c>
       <c r="AI62" s="11">
-        <v>65182000</v>
+        <v>66940000</v>
       </c>
       <c r="AJ62" s="11">
-        <v>66940000</v>
+        <v>49422909</v>
       </c>
       <c r="AK62" s="11">
-        <v>49422909</v>
+        <v>57013525</v>
       </c>
       <c r="AL62" s="11">
-        <v>57013525</v>
+        <v>64476920</v>
       </c>
       <c r="AM62" s="11">
-        <v>64476920</v>
+        <v>69333219</v>
       </c>
       <c r="AN62" s="11">
-        <v>69333219</v>
+        <v>78625806</v>
       </c>
       <c r="AO62" s="11">
-        <v>78625806</v>
-      </c>
-      <c r="AP62" s="11">
         <v>92424638</v>
       </c>
-      <c r="AQ62" s="11" t="s">
-        <v>60</v>
+      <c r="AP62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ62" s="11">
+        <v>91021448</v>
       </c>
       <c r="AR62" s="11">
-        <v>91021448</v>
+        <v>147770807</v>
       </c>
       <c r="AS62" s="11">
-        <v>182064113</v>
+        <v>122335731</v>
       </c>
       <c r="AT62" s="11">
-        <v>147770807</v>
-      </c>
-      <c r="AU62" s="11">
         <v>144426877</v>
       </c>
-      <c r="AV62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW62" s="11">
-        <v>433713</v>
-      </c>
-      <c r="AX62" s="11">
-        <v>2137559</v>
-      </c>
-      <c r="AY62" s="11">
-        <v>-2161885</v>
-      </c>
-      <c r="AZ62" s="11">
-        <v>1774606</v>
-      </c>
-      <c r="BA62" s="11" t="s">
-        <v>60</v>
+      <c r="AU62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA62" s="11">
+        <v>5694024</v>
       </c>
       <c r="BB62" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>10699140</v>
+        <v>12795082</v>
       </c>
       <c r="F63" s="13">
-        <v>12795082</v>
+        <v>12080000</v>
       </c>
       <c r="G63" s="13">
-        <v>12080000</v>
+        <v>15968487</v>
       </c>
       <c r="H63" s="13">
-        <v>15968487</v>
+        <v>19121622</v>
       </c>
       <c r="I63" s="13">
-        <v>19121622</v>
+        <v>16082969</v>
       </c>
       <c r="J63" s="13">
-        <v>16082969</v>
+        <v>13130435</v>
       </c>
       <c r="K63" s="13">
-        <v>13130435</v>
+        <v>12903846</v>
       </c>
       <c r="L63" s="13">
-        <v>12903846</v>
+        <v>12308511</v>
       </c>
       <c r="M63" s="13">
-        <v>12308511</v>
+        <v>12250000</v>
       </c>
       <c r="N63" s="13">
-        <v>12250000</v>
+        <v>0</v>
       </c>
       <c r="O63" s="13">
-        <v>0</v>
+        <v>12816667</v>
       </c>
       <c r="P63" s="13">
-        <v>12816667</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="13">
         <v>0</v>
@@ -7550,184 +7555,184 @@
         <v>0</v>
       </c>
       <c r="W63" s="13">
-        <v>0</v>
+        <v>16485380</v>
       </c>
       <c r="X63" s="13">
-        <v>16485380</v>
+        <v>13833773</v>
       </c>
       <c r="Y63" s="13">
-        <v>13833773</v>
+        <v>22450000</v>
       </c>
       <c r="Z63" s="13">
-        <v>22450000</v>
-      </c>
-      <c r="AA63" s="13">
         <v>22875000</v>
       </c>
-      <c r="AB63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC63" s="13">
+      <c r="AA63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB63" s="13">
         <v>25358974</v>
       </c>
+      <c r="AC63" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AD63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF63" s="13">
+        <v>57</v>
+      </c>
+      <c r="AE63" s="13">
         <v>29825175</v>
       </c>
+      <c r="AF63" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG63" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI63" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AI63" s="13">
+        <v>28444444</v>
       </c>
       <c r="AJ63" s="13">
-        <v>28444444</v>
+        <v>46088000</v>
       </c>
       <c r="AK63" s="13">
-        <v>46088000</v>
-      </c>
-      <c r="AL63" s="13">
         <v>45526000</v>
       </c>
+      <c r="AL63" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AM63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO63" s="13">
+        <v>57</v>
+      </c>
+      <c r="AN63" s="13">
         <v>61031579</v>
       </c>
-      <c r="AP63" s="13" t="s">
-        <v>60</v>
+      <c r="AO63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="13">
+        <v>65284685</v>
       </c>
       <c r="AQ63" s="13">
-        <v>65284685</v>
+        <v>81041353</v>
       </c>
       <c r="AR63" s="13">
-        <v>81041353</v>
+        <v>3193921</v>
       </c>
       <c r="AS63" s="13">
-        <v>87047619</v>
+        <v>137295729</v>
       </c>
       <c r="AT63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU63" s="13">
-        <v>153030000</v>
-      </c>
-      <c r="AV63" s="13">
-        <v>163428571</v>
-      </c>
-      <c r="AW63" s="13">
-        <v>159000000</v>
-      </c>
-      <c r="AX63" s="13">
-        <v>194612440</v>
-      </c>
-      <c r="AY63" s="13">
-        <v>197024691</v>
-      </c>
-      <c r="AZ63" s="13">
-        <v>195411265</v>
-      </c>
-      <c r="BA63" s="13">
-        <v>204486924</v>
-      </c>
-      <c r="BB63" s="13">
-        <v>211411215</v>
+        <v>139711268</v>
+      </c>
+      <c r="AU63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB63" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>6124975</v>
+        <v>6125016</v>
       </c>
       <c r="F64" s="11">
-        <v>6125016</v>
+        <v>6125000</v>
       </c>
       <c r="G64" s="11">
-        <v>6125000</v>
+        <v>6124991</v>
       </c>
       <c r="H64" s="11">
-        <v>6124991</v>
+        <v>6124978</v>
       </c>
       <c r="I64" s="11">
-        <v>6124978</v>
+        <v>6125011</v>
       </c>
       <c r="J64" s="11">
-        <v>6125011</v>
+        <v>14401997</v>
       </c>
       <c r="K64" s="11">
-        <v>14401997</v>
+        <v>16080006</v>
       </c>
       <c r="L64" s="11">
-        <v>16080006</v>
+        <v>16079992</v>
       </c>
       <c r="M64" s="11">
-        <v>16079992</v>
+        <v>16989987</v>
       </c>
       <c r="N64" s="11">
-        <v>16989987</v>
+        <v>16990104</v>
       </c>
       <c r="O64" s="11">
-        <v>16990104</v>
+        <v>16990013</v>
       </c>
       <c r="P64" s="11">
-        <v>16990013</v>
+        <v>15197993</v>
       </c>
       <c r="Q64" s="11">
-        <v>15197993</v>
+        <v>18352005</v>
       </c>
       <c r="R64" s="11">
-        <v>18352005</v>
+        <v>18352041</v>
       </c>
       <c r="S64" s="11">
-        <v>18352041</v>
+        <v>18351976</v>
       </c>
       <c r="T64" s="11">
-        <v>18351976</v>
+        <v>18351962</v>
       </c>
       <c r="U64" s="11">
-        <v>18351962</v>
+        <v>18352180</v>
       </c>
       <c r="V64" s="11">
-        <v>18352180</v>
+        <v>18352015</v>
       </c>
       <c r="W64" s="11">
-        <v>18352015</v>
+        <v>22229976</v>
       </c>
       <c r="X64" s="11">
-        <v>22229976</v>
+        <v>22229985</v>
       </c>
       <c r="Y64" s="11">
-        <v>22229985</v>
+        <v>22229991</v>
       </c>
       <c r="Z64" s="11">
-        <v>22229991</v>
+        <v>22230019</v>
       </c>
       <c r="AA64" s="11">
-        <v>22230019</v>
+        <v>22229982</v>
       </c>
       <c r="AB64" s="11">
-        <v>22229982</v>
+        <v>22230022</v>
       </c>
       <c r="AC64" s="11">
-        <v>22230022</v>
+        <v>36000000</v>
       </c>
       <c r="AD64" s="11">
         <v>36000000</v>
@@ -7745,7 +7750,7 @@
         <v>36000000</v>
       </c>
       <c r="AI64" s="11">
-        <v>36000000</v>
+        <v>46000000</v>
       </c>
       <c r="AJ64" s="11">
         <v>46000000</v>
@@ -7760,208 +7765,208 @@
         <v>46000000</v>
       </c>
       <c r="AN64" s="11">
-        <v>46000000</v>
+        <v>46066979</v>
       </c>
       <c r="AO64" s="11">
-        <v>46066979</v>
+        <v>68299992</v>
       </c>
       <c r="AP64" s="11">
-        <v>68299992</v>
+        <v>90228992</v>
       </c>
       <c r="AQ64" s="11">
-        <v>90228992</v>
+        <v>90229023</v>
       </c>
       <c r="AR64" s="11">
-        <v>90229023</v>
+        <v>90228944</v>
       </c>
       <c r="AS64" s="11">
-        <v>90228998</v>
+        <v>88498608</v>
       </c>
       <c r="AT64" s="11">
-        <v>90228944</v>
+        <v>90229024</v>
       </c>
       <c r="AU64" s="11">
-        <v>90229024</v>
+        <v>145112010</v>
       </c>
       <c r="AV64" s="11">
-        <v>145112010</v>
+        <v>116649203</v>
       </c>
       <c r="AW64" s="11">
-        <v>116649203</v>
+        <v>116648982</v>
       </c>
       <c r="AX64" s="11">
-        <v>116648982</v>
+        <v>116648955</v>
       </c>
       <c r="AY64" s="11">
-        <v>116648955</v>
+        <v>108602994</v>
       </c>
       <c r="AZ64" s="11">
-        <v>108602994</v>
+        <v>108603046</v>
       </c>
       <c r="BA64" s="11">
-        <v>108603046</v>
+        <v>108603021</v>
       </c>
       <c r="BB64" s="11">
-        <v>108603021</v>
+        <v>108602989</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="W65" s="13">
+        <v>26077143</v>
       </c>
       <c r="X65" s="13">
-        <v>26077143</v>
+        <v>25740878</v>
       </c>
       <c r="Y65" s="13">
-        <v>25740878</v>
+        <v>25250618</v>
       </c>
       <c r="Z65" s="13">
-        <v>25250618</v>
+        <v>26259271</v>
       </c>
       <c r="AA65" s="13">
-        <v>26259271</v>
+        <v>29739218</v>
       </c>
       <c r="AB65" s="13">
-        <v>29739218</v>
+        <v>33120804</v>
       </c>
       <c r="AC65" s="13">
-        <v>33120804</v>
+        <v>38458742</v>
       </c>
       <c r="AD65" s="13">
-        <v>38458742</v>
+        <v>41761545</v>
       </c>
       <c r="AE65" s="13">
-        <v>41761545</v>
+        <v>46823510</v>
       </c>
       <c r="AF65" s="13">
-        <v>46823510</v>
+        <v>47155072</v>
       </c>
       <c r="AG65" s="13">
-        <v>47155072</v>
+        <v>48871865</v>
       </c>
       <c r="AH65" s="13">
-        <v>48871865</v>
+        <v>54277952</v>
       </c>
       <c r="AI65" s="13">
-        <v>54277952</v>
+        <v>48469506</v>
       </c>
       <c r="AJ65" s="13">
-        <v>48469506</v>
+        <v>54907923</v>
       </c>
       <c r="AK65" s="13">
-        <v>54907923</v>
+        <v>56413241</v>
       </c>
       <c r="AL65" s="13">
-        <v>56413241</v>
+        <v>65120794</v>
       </c>
       <c r="AM65" s="13">
-        <v>65120794</v>
+        <v>78179806</v>
       </c>
       <c r="AN65" s="13">
-        <v>78179806</v>
+        <v>82073769</v>
       </c>
       <c r="AO65" s="13">
-        <v>82073769</v>
+        <v>95848613</v>
       </c>
       <c r="AP65" s="13">
-        <v>95848613</v>
+        <v>123406667</v>
       </c>
       <c r="AQ65" s="13">
-        <v>123406667</v>
+        <v>162489941</v>
       </c>
       <c r="AR65" s="13">
-        <v>162489941</v>
+        <v>182658771</v>
       </c>
       <c r="AS65" s="13">
-        <v>187126246</v>
+        <v>149126042</v>
       </c>
       <c r="AT65" s="13">
-        <v>182658771</v>
+        <v>151548368</v>
       </c>
       <c r="AU65" s="13">
-        <v>151548368</v>
+        <v>153855556</v>
       </c>
       <c r="AV65" s="13">
-        <v>153855556</v>
+        <v>158603854</v>
       </c>
       <c r="AW65" s="13">
-        <v>158603854</v>
+        <v>140628267</v>
       </c>
       <c r="AX65" s="13">
-        <v>140628267</v>
+        <v>120961330</v>
       </c>
       <c r="AY65" s="13">
-        <v>120961330</v>
+        <v>116577261</v>
       </c>
       <c r="AZ65" s="13">
-        <v>116577261</v>
+        <v>121461279</v>
       </c>
       <c r="BA65" s="13">
-        <v>121461279</v>
+        <v>139620573</v>
       </c>
       <c r="BB65" s="13">
-        <v>139620573</v>
+        <v>139411082</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7973,154 +7978,154 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT66" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU66" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU66" s="11">
+        <v>133848587</v>
       </c>
       <c r="AV66" s="11">
-        <v>133848587</v>
+        <v>135719395</v>
       </c>
       <c r="AW66" s="11">
-        <v>135719395</v>
+        <v>139202408</v>
       </c>
       <c r="AX66" s="11">
-        <v>139202408</v>
+        <v>134482607</v>
       </c>
       <c r="AY66" s="11">
-        <v>134482607</v>
+        <v>138808928</v>
       </c>
       <c r="AZ66" s="11">
-        <v>138808928</v>
+        <v>135372821</v>
       </c>
       <c r="BA66" s="11">
-        <v>135372821</v>
+        <v>143746839</v>
       </c>
       <c r="BB66" s="11">
-        <v>143746839</v>
+        <v>137927882</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8132,154 +8137,154 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AE67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AG67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AH67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AI67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AL67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AM67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AN67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AO67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AP67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AQ67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AR67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AS67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV67" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="AU67" s="13">
+        <v>163428571</v>
+      </c>
+      <c r="AV67" s="13">
+        <v>153119565</v>
       </c>
       <c r="AW67" s="13">
-        <v>152237500</v>
+        <v>179382831</v>
       </c>
       <c r="AX67" s="13">
-        <v>174508423</v>
+        <v>174258182</v>
       </c>
       <c r="AY67" s="13">
-        <v>164752577</v>
+        <v>193686111</v>
       </c>
       <c r="AZ67" s="13">
-        <v>190432866</v>
+        <v>199463040</v>
       </c>
       <c r="BA67" s="13">
-        <v>194920045</v>
+        <v>211112069</v>
       </c>
       <c r="BB67" s="13">
-        <v>207555556</v>
+        <v>209466863</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/urea/kermasha/product/monthly.xlsx
+++ b/database/industries/urea/kermasha/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\kermasha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\kermasha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EDBA1-9B5B-4887-9046-04B1739D54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7429A-B24E-4A25-8CB4-1688FD9F5760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کرماشا-صنایع پتروشیمی کرمانشاه</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -154,7 +151,7 @@
     <t>ماه 9 منتهی به 1400/09</t>
   </si>
   <si>
-    <t>ماه 10 منتهی به 1400/11</t>
+    <t>ماه 10 منتهی به 1400/10</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1400/11</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>اوره</t>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1400/10</t>
   </si>
 </sst>
 </file>
@@ -737,9 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1263,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AS8" s="6" t="s">
         <v>45</v>
@@ -1417,131 +1412,131 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>58375</v>
+        <v>58189</v>
       </c>
       <c r="F11" s="11">
-        <v>58189</v>
+        <v>53034</v>
       </c>
       <c r="G11" s="11">
-        <v>53034</v>
+        <v>59605</v>
       </c>
       <c r="H11" s="11">
-        <v>59605</v>
+        <v>55846</v>
       </c>
       <c r="I11" s="11">
-        <v>55846</v>
+        <v>47135</v>
       </c>
       <c r="J11" s="11">
-        <v>47135</v>
+        <v>53926</v>
       </c>
       <c r="K11" s="11">
-        <v>53926</v>
+        <v>58519</v>
       </c>
       <c r="L11" s="11">
-        <v>58519</v>
+        <v>63927</v>
       </c>
       <c r="M11" s="11">
-        <v>63927</v>
+        <v>35437</v>
       </c>
       <c r="N11" s="11">
-        <v>35437</v>
+        <v>63109</v>
       </c>
       <c r="O11" s="11">
-        <v>63109</v>
+        <v>62848</v>
       </c>
       <c r="P11" s="11">
-        <v>62848</v>
+        <v>61680</v>
       </c>
       <c r="Q11" s="11">
-        <v>61680</v>
+        <v>55335</v>
       </c>
       <c r="R11" s="11">
-        <v>55335</v>
+        <v>47158</v>
       </c>
       <c r="S11" s="11">
-        <v>47158</v>
+        <v>39355</v>
       </c>
       <c r="T11" s="11">
-        <v>39355</v>
+        <v>10909</v>
       </c>
       <c r="U11" s="11">
-        <v>10909</v>
+        <v>55912</v>
       </c>
       <c r="V11" s="11">
-        <v>55912</v>
+        <v>54184</v>
       </c>
       <c r="W11" s="11">
-        <v>54184</v>
+        <v>62586</v>
       </c>
       <c r="X11" s="11">
-        <v>62586</v>
+        <v>63483</v>
       </c>
       <c r="Y11" s="11">
-        <v>63483</v>
+        <v>63335</v>
       </c>
       <c r="Z11" s="11">
-        <v>63335</v>
+        <v>63502</v>
       </c>
       <c r="AA11" s="11">
-        <v>63502</v>
+        <v>63454</v>
       </c>
       <c r="AB11" s="11">
-        <v>63454</v>
+        <v>62027</v>
       </c>
       <c r="AC11" s="11">
-        <v>62027</v>
+        <v>61492</v>
       </c>
       <c r="AD11" s="11">
-        <v>61492</v>
+        <v>60794</v>
       </c>
       <c r="AE11" s="11">
-        <v>60794</v>
+        <v>12332</v>
       </c>
       <c r="AF11" s="11">
-        <v>12332</v>
+        <v>51999</v>
       </c>
       <c r="AG11" s="11">
-        <v>51999</v>
+        <v>62086</v>
       </c>
       <c r="AH11" s="11">
-        <v>62086</v>
+        <v>63660</v>
       </c>
       <c r="AI11" s="11">
-        <v>63660</v>
+        <v>63814</v>
       </c>
       <c r="AJ11" s="11">
-        <v>63814</v>
+        <v>63630</v>
       </c>
       <c r="AK11" s="11">
-        <v>63630</v>
+        <v>62584</v>
       </c>
       <c r="AL11" s="11">
-        <v>62584</v>
+        <v>60362</v>
       </c>
       <c r="AM11" s="11">
-        <v>60362</v>
+        <v>63629</v>
       </c>
       <c r="AN11" s="11">
-        <v>63629</v>
+        <v>61510</v>
       </c>
       <c r="AO11" s="11">
-        <v>61510</v>
+        <v>59816</v>
       </c>
       <c r="AP11" s="11">
-        <v>59816</v>
+        <v>57748</v>
       </c>
       <c r="AQ11" s="11">
-        <v>57748</v>
+        <v>50096</v>
       </c>
       <c r="AR11" s="11">
         <v>7180</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11">
         <v>56986</v>
       </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1560,11 +1555,11 @@
       <c r="AZ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA11" s="11">
-        <v>58636</v>
-      </c>
-      <c r="BB11" s="11">
-        <v>59732</v>
+      <c r="BA11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB11" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1576,130 +1571,130 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>34107</v>
+        <v>33532</v>
       </c>
       <c r="F12" s="13">
-        <v>33532</v>
+        <v>30540</v>
       </c>
       <c r="G12" s="13">
-        <v>30540</v>
+        <v>33425</v>
       </c>
       <c r="H12" s="13">
-        <v>33425</v>
+        <v>31420</v>
       </c>
       <c r="I12" s="13">
-        <v>31420</v>
+        <v>27250</v>
       </c>
       <c r="J12" s="13">
-        <v>27250</v>
+        <v>30365</v>
       </c>
       <c r="K12" s="13">
-        <v>30365</v>
+        <v>32936</v>
       </c>
       <c r="L12" s="13">
-        <v>32936</v>
+        <v>36183</v>
       </c>
       <c r="M12" s="13">
-        <v>36183</v>
+        <v>25448</v>
       </c>
       <c r="N12" s="13">
-        <v>25448</v>
+        <v>35656</v>
       </c>
       <c r="O12" s="13">
-        <v>35656</v>
+        <v>36150</v>
       </c>
       <c r="P12" s="13">
-        <v>36150</v>
+        <v>34393</v>
       </c>
       <c r="Q12" s="13">
-        <v>34393</v>
+        <v>31433</v>
       </c>
       <c r="R12" s="13">
-        <v>31433</v>
+        <v>26318</v>
       </c>
       <c r="S12" s="13">
-        <v>26318</v>
+        <v>22451</v>
       </c>
       <c r="T12" s="13">
-        <v>22451</v>
+        <v>6030</v>
       </c>
       <c r="U12" s="13">
-        <v>6030</v>
+        <v>32332</v>
       </c>
       <c r="V12" s="13">
-        <v>32332</v>
+        <v>34329</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>36014</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>106398</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>142465</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>178512</v>
       </c>
       <c r="AA12" s="13">
-        <v>0</v>
+        <v>36215</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>249951</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>284890</v>
       </c>
       <c r="AD12" s="13">
-        <v>0</v>
+        <v>319767</v>
       </c>
       <c r="AE12" s="13">
-        <v>0</v>
+        <v>6677</v>
       </c>
       <c r="AF12" s="13">
-        <v>0</v>
+        <v>356905</v>
       </c>
       <c r="AG12" s="13">
-        <v>0</v>
+        <v>35880</v>
       </c>
       <c r="AH12" s="13">
-        <v>0</v>
+        <v>37102</v>
       </c>
       <c r="AI12" s="13">
-        <v>0</v>
+        <v>74197</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>110960</v>
       </c>
       <c r="AK12" s="13">
-        <v>0</v>
+        <v>146745</v>
       </c>
       <c r="AL12" s="13">
-        <v>0</v>
+        <v>179733</v>
       </c>
       <c r="AM12" s="13">
-        <v>0</v>
+        <v>216093</v>
       </c>
       <c r="AN12" s="13">
-        <v>0</v>
+        <v>35766</v>
       </c>
       <c r="AO12" s="13">
-        <v>0</v>
+        <v>285678</v>
       </c>
       <c r="AP12" s="13">
-        <v>0</v>
+        <v>319124</v>
       </c>
       <c r="AQ12" s="13">
-        <v>0</v>
+        <v>29016</v>
       </c>
       <c r="AR12" s="13">
-        <v>351737</v>
+        <v>3597</v>
       </c>
       <c r="AS12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="13">
         <v>32944</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>57</v>
@@ -1938,14 +1933,14 @@
       <c r="S14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>57</v>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
       </c>
       <c r="W14" s="13">
         <v>0</v>
@@ -2175,32 +2170,32 @@
       <c r="AS15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>57</v>
+      <c r="AT15" s="11">
+        <v>63052</v>
       </c>
       <c r="AU15" s="11">
-        <v>63052</v>
+        <v>63444</v>
       </c>
       <c r="AV15" s="11">
-        <v>63444</v>
+        <v>63398</v>
       </c>
       <c r="AW15" s="11">
-        <v>63398</v>
+        <v>62459</v>
       </c>
       <c r="AX15" s="11">
-        <v>62459</v>
+        <v>63085</v>
       </c>
       <c r="AY15" s="11">
-        <v>63085</v>
+        <v>50585</v>
       </c>
       <c r="AZ15" s="11">
-        <v>50585</v>
+        <v>58636</v>
       </c>
       <c r="BA15" s="11">
-        <v>-366023</v>
+        <v>59732</v>
       </c>
       <c r="BB15" s="11">
-        <v>0</v>
+        <v>50708</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2334,32 +2329,32 @@
       <c r="AS16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>57</v>
+      <c r="AT16" s="13">
+        <v>36701</v>
       </c>
       <c r="AU16" s="13">
-        <v>36701</v>
+        <v>36972</v>
       </c>
       <c r="AV16" s="13">
-        <v>36972</v>
+        <v>37038</v>
       </c>
       <c r="AW16" s="13">
-        <v>37038</v>
+        <v>36849</v>
       </c>
       <c r="AX16" s="13">
-        <v>36849</v>
+        <v>36394</v>
       </c>
       <c r="AY16" s="13">
-        <v>36394</v>
+        <v>32156</v>
       </c>
       <c r="AZ16" s="13">
-        <v>32156</v>
+        <v>34537</v>
       </c>
       <c r="BA16" s="13">
-        <v>34537</v>
+        <v>34132</v>
       </c>
       <c r="BB16" s="13">
-        <v>34132</v>
+        <v>29534</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2476,17 +2471,17 @@
       <c r="U18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>57</v>
+      <c r="V18" s="17">
+        <v>0</v>
+      </c>
+      <c r="W18" s="17">
+        <v>0</v>
+      </c>
+      <c r="X18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>0</v>
       </c>
       <c r="Z18" s="17">
         <v>0</v>
@@ -2583,154 +2578,154 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19">
-        <v>92482</v>
+        <v>91721</v>
       </c>
       <c r="F19" s="19">
-        <v>91721</v>
+        <v>83574</v>
       </c>
       <c r="G19" s="19">
-        <v>83574</v>
+        <v>93030</v>
       </c>
       <c r="H19" s="19">
-        <v>93030</v>
+        <v>87266</v>
       </c>
       <c r="I19" s="19">
-        <v>87266</v>
+        <v>74385</v>
       </c>
       <c r="J19" s="19">
-        <v>74385</v>
+        <v>84291</v>
       </c>
       <c r="K19" s="19">
-        <v>84291</v>
+        <v>91455</v>
       </c>
       <c r="L19" s="19">
-        <v>91455</v>
+        <v>100110</v>
       </c>
       <c r="M19" s="19">
-        <v>100110</v>
+        <v>60885</v>
       </c>
       <c r="N19" s="19">
-        <v>60885</v>
+        <v>98765</v>
       </c>
       <c r="O19" s="19">
-        <v>98765</v>
+        <v>98998</v>
       </c>
       <c r="P19" s="19">
-        <v>98998</v>
+        <v>96073</v>
       </c>
       <c r="Q19" s="19">
-        <v>96073</v>
+        <v>86768</v>
       </c>
       <c r="R19" s="19">
-        <v>86768</v>
+        <v>73476</v>
       </c>
       <c r="S19" s="19">
-        <v>73476</v>
+        <v>61806</v>
       </c>
       <c r="T19" s="19">
-        <v>61806</v>
+        <v>16939</v>
       </c>
       <c r="U19" s="19">
-        <v>16939</v>
+        <v>88244</v>
       </c>
       <c r="V19" s="19">
-        <v>88244</v>
+        <v>88513</v>
       </c>
       <c r="W19" s="19">
-        <v>54184</v>
+        <v>98600</v>
       </c>
       <c r="X19" s="19">
-        <v>62586</v>
+        <v>169881</v>
       </c>
       <c r="Y19" s="19">
-        <v>63483</v>
+        <v>205800</v>
       </c>
       <c r="Z19" s="19">
-        <v>63335</v>
+        <v>242014</v>
       </c>
       <c r="AA19" s="19">
-        <v>63502</v>
+        <v>99669</v>
       </c>
       <c r="AB19" s="19">
-        <v>63454</v>
+        <v>311978</v>
       </c>
       <c r="AC19" s="19">
-        <v>62027</v>
+        <v>346382</v>
       </c>
       <c r="AD19" s="19">
-        <v>61492</v>
+        <v>380561</v>
       </c>
       <c r="AE19" s="19">
-        <v>60794</v>
+        <v>19009</v>
       </c>
       <c r="AF19" s="19">
-        <v>12332</v>
+        <v>408904</v>
       </c>
       <c r="AG19" s="19">
-        <v>51999</v>
+        <v>97966</v>
       </c>
       <c r="AH19" s="19">
-        <v>62086</v>
+        <v>100762</v>
       </c>
       <c r="AI19" s="19">
-        <v>63660</v>
+        <v>138011</v>
       </c>
       <c r="AJ19" s="19">
-        <v>63814</v>
+        <v>174590</v>
       </c>
       <c r="AK19" s="19">
-        <v>63630</v>
+        <v>209329</v>
       </c>
       <c r="AL19" s="19">
-        <v>62584</v>
+        <v>240095</v>
       </c>
       <c r="AM19" s="19">
-        <v>60362</v>
+        <v>279722</v>
       </c>
       <c r="AN19" s="19">
-        <v>63629</v>
+        <v>97276</v>
       </c>
       <c r="AO19" s="19">
-        <v>61510</v>
+        <v>345494</v>
       </c>
       <c r="AP19" s="19">
-        <v>59816</v>
+        <v>376872</v>
       </c>
       <c r="AQ19" s="19">
-        <v>57748</v>
+        <v>79112</v>
       </c>
       <c r="AR19" s="19">
-        <v>358917</v>
+        <v>10777</v>
       </c>
       <c r="AS19" s="19">
-        <v>0</v>
+        <v>89930</v>
       </c>
       <c r="AT19" s="19">
-        <v>89930</v>
+        <v>99753</v>
       </c>
       <c r="AU19" s="19">
-        <v>99753</v>
+        <v>100416</v>
       </c>
       <c r="AV19" s="19">
-        <v>100416</v>
+        <v>100436</v>
       </c>
       <c r="AW19" s="19">
-        <v>100436</v>
+        <v>99308</v>
       </c>
       <c r="AX19" s="19">
-        <v>99308</v>
+        <v>99479</v>
       </c>
       <c r="AY19" s="19">
-        <v>99479</v>
+        <v>82741</v>
       </c>
       <c r="AZ19" s="19">
-        <v>82741</v>
+        <v>93173</v>
       </c>
       <c r="BA19" s="19">
-        <v>-272850</v>
+        <v>93864</v>
       </c>
       <c r="BB19" s="19">
-        <v>93864</v>
+        <v>80242</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3221,86 +3216,86 @@
         <v>0</v>
       </c>
       <c r="T26" s="11">
-        <v>0</v>
+        <v>14803</v>
       </c>
       <c r="U26" s="11">
-        <v>0</v>
+        <v>73122</v>
       </c>
       <c r="V26" s="11">
-        <v>0</v>
+        <v>36985</v>
       </c>
       <c r="W26" s="11">
-        <v>36985</v>
+        <v>6700</v>
       </c>
       <c r="X26" s="11">
-        <v>6700</v>
+        <v>34344</v>
       </c>
       <c r="Y26" s="11">
-        <v>34344</v>
+        <v>3402</v>
       </c>
       <c r="Z26" s="11">
-        <v>3402</v>
+        <v>11250</v>
       </c>
       <c r="AA26" s="11">
-        <v>11250</v>
+        <v>87380</v>
       </c>
       <c r="AB26" s="11">
-        <v>87380</v>
+        <v>10169</v>
       </c>
       <c r="AC26" s="11">
-        <v>10169</v>
+        <v>49000</v>
       </c>
       <c r="AD26" s="11">
-        <v>49000</v>
+        <v>14198</v>
       </c>
       <c r="AE26" s="11">
-        <v>14198</v>
+        <v>59206</v>
       </c>
       <c r="AF26" s="11">
-        <v>59206</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AH26" s="11">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AI26" s="11">
-        <v>400</v>
+        <v>21799</v>
       </c>
       <c r="AJ26" s="11">
-        <v>21799</v>
+        <v>68243</v>
       </c>
       <c r="AK26" s="11">
-        <v>68243</v>
+        <v>36048</v>
       </c>
       <c r="AL26" s="11">
-        <v>36048</v>
+        <v>20452</v>
       </c>
       <c r="AM26" s="11">
-        <v>20452</v>
+        <v>36449</v>
       </c>
       <c r="AN26" s="11">
-        <v>36449</v>
+        <v>28290</v>
       </c>
       <c r="AO26" s="11">
-        <v>28290</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="11">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="AQ26" s="11">
-        <v>746</v>
+        <v>24987</v>
       </c>
       <c r="AR26" s="11">
         <v>3124</v>
       </c>
       <c r="AS26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="11">
         <v>126177</v>
       </c>
+      <c r="AT26" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU26" s="11" t="s">
         <v>57</v>
       </c>
@@ -3319,11 +3314,11 @@
       <c r="AZ26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA26" s="11">
-        <v>-158432</v>
-      </c>
-      <c r="BB26" s="11">
-        <v>0</v>
+      <c r="BA26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB26" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3335,37 +3330,37 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="F27" s="13">
-        <v>50</v>
+        <v>476</v>
       </c>
       <c r="G27" s="13">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="H27" s="13">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="I27" s="13">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="J27" s="13">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="K27" s="13">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="L27" s="13">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="M27" s="13">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="N27" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="O27" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="P27" s="13">
         <v>0</v>
@@ -3380,85 +3375,85 @@
         <v>0</v>
       </c>
       <c r="T27" s="13">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="U27" s="13">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="V27" s="13">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="W27" s="13">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="X27" s="13">
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="Y27" s="13">
-        <v>40</v>
+        <v>2514</v>
       </c>
       <c r="Z27" s="13">
-        <v>64</v>
+        <v>2620</v>
       </c>
       <c r="AA27" s="13">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="AB27" s="13">
-        <v>351</v>
+        <v>3341</v>
       </c>
       <c r="AC27" s="13">
-        <v>0</v>
+        <v>3387</v>
       </c>
       <c r="AD27" s="13">
-        <v>0</v>
+        <v>3720</v>
       </c>
       <c r="AE27" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="13">
-        <v>0</v>
+        <v>3605</v>
       </c>
       <c r="AG27" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH27" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI27" s="13">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="AJ27" s="13">
-        <v>500</v>
+        <v>1432</v>
       </c>
       <c r="AK27" s="13">
-        <v>500</v>
+        <v>1094</v>
       </c>
       <c r="AL27" s="13">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="AM27" s="13">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="AN27" s="13">
-        <v>570</v>
+        <v>105</v>
       </c>
       <c r="AO27" s="13">
-        <v>0</v>
+        <v>2268</v>
       </c>
       <c r="AP27" s="13">
-        <v>555</v>
+        <v>2318</v>
       </c>
       <c r="AQ27" s="13">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="AR27" s="13">
-        <v>2054</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="13">
         <v>142</v>
+      </c>
+      <c r="AT27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU27" s="13" t="s">
         <v>57</v>
@@ -3494,154 +3489,154 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>15846</v>
+        <v>18576</v>
       </c>
       <c r="F28" s="11">
-        <v>18576</v>
+        <v>26410</v>
       </c>
       <c r="G28" s="11">
-        <v>26410</v>
+        <v>22756</v>
       </c>
       <c r="H28" s="11">
-        <v>22756</v>
+        <v>22454</v>
       </c>
       <c r="I28" s="11">
-        <v>22454</v>
+        <v>24341</v>
       </c>
       <c r="J28" s="11">
-        <v>24341</v>
+        <v>19186</v>
       </c>
       <c r="K28" s="11">
-        <v>19186</v>
+        <v>19277</v>
       </c>
       <c r="L28" s="11">
-        <v>19277</v>
+        <v>18575</v>
       </c>
       <c r="M28" s="11">
-        <v>18575</v>
+        <v>2122</v>
       </c>
       <c r="N28" s="11">
-        <v>2122</v>
+        <v>19326</v>
       </c>
       <c r="O28" s="11">
-        <v>19326</v>
+        <v>25016</v>
       </c>
       <c r="P28" s="11">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="Q28" s="11">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="R28" s="11">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="S28" s="11">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="T28" s="11">
-        <v>12794</v>
+        <v>2706</v>
       </c>
       <c r="U28" s="11">
-        <v>2706</v>
+        <v>26158</v>
       </c>
       <c r="V28" s="11">
-        <v>26158</v>
+        <v>16293</v>
       </c>
       <c r="W28" s="11">
-        <v>16293</v>
+        <v>30915</v>
       </c>
       <c r="X28" s="11">
-        <v>30915</v>
+        <v>15918</v>
       </c>
       <c r="Y28" s="11">
-        <v>15918</v>
+        <v>12199</v>
       </c>
       <c r="Z28" s="11">
-        <v>12199</v>
+        <v>9092</v>
       </c>
       <c r="AA28" s="11">
-        <v>9092</v>
+        <v>22124</v>
       </c>
       <c r="AB28" s="11">
-        <v>22124</v>
+        <v>19472</v>
       </c>
       <c r="AC28" s="11">
-        <v>19472</v>
+        <v>19137</v>
       </c>
       <c r="AD28" s="11">
-        <v>19137</v>
+        <v>15241</v>
       </c>
       <c r="AE28" s="11">
-        <v>15241</v>
+        <v>15493</v>
       </c>
       <c r="AF28" s="11">
-        <v>15493</v>
+        <v>29129</v>
       </c>
       <c r="AG28" s="11">
-        <v>29129</v>
+        <v>29950</v>
       </c>
       <c r="AH28" s="11">
-        <v>29950</v>
+        <v>26525</v>
       </c>
       <c r="AI28" s="11">
-        <v>26525</v>
+        <v>24446</v>
       </c>
       <c r="AJ28" s="11">
-        <v>24446</v>
+        <v>12368</v>
       </c>
       <c r="AK28" s="11">
-        <v>12368</v>
+        <v>18990</v>
       </c>
       <c r="AL28" s="11">
-        <v>18990</v>
+        <v>16785</v>
       </c>
       <c r="AM28" s="11">
-        <v>16785</v>
+        <v>19663</v>
       </c>
       <c r="AN28" s="11">
-        <v>19663</v>
+        <v>23554</v>
       </c>
       <c r="AO28" s="11">
-        <v>23554</v>
+        <v>19088</v>
       </c>
       <c r="AP28" s="11">
-        <v>19088</v>
+        <v>21273</v>
       </c>
       <c r="AQ28" s="11">
-        <v>21273</v>
+        <v>29437</v>
       </c>
       <c r="AR28" s="11">
         <v>6364</v>
       </c>
       <c r="AS28" s="11">
-        <v>0</v>
+        <v>16972</v>
       </c>
       <c r="AT28" s="11">
-        <v>16972</v>
+        <v>15820</v>
       </c>
       <c r="AU28" s="11">
-        <v>15820</v>
+        <v>17628</v>
       </c>
       <c r="AV28" s="11">
-        <v>17628</v>
+        <v>14250</v>
       </c>
       <c r="AW28" s="11">
-        <v>14250</v>
+        <v>10577</v>
       </c>
       <c r="AX28" s="11">
-        <v>10577</v>
+        <v>23340</v>
       </c>
       <c r="AY28" s="11">
-        <v>23340</v>
+        <v>15629</v>
       </c>
       <c r="AZ28" s="11">
-        <v>15629</v>
+        <v>15026</v>
       </c>
       <c r="BA28" s="11">
-        <v>15026</v>
+        <v>4015</v>
       </c>
       <c r="BB28" s="11">
-        <v>4015</v>
+        <v>20505</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3697,110 +3692,110 @@
       <c r="S29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V29" s="13" t="s">
-        <v>57</v>
+      <c r="T29" s="13">
+        <v>7325</v>
+      </c>
+      <c r="U29" s="13">
+        <v>9323</v>
+      </c>
+      <c r="V29" s="13">
+        <v>350</v>
       </c>
       <c r="W29" s="13">
-        <v>350</v>
+        <v>1891</v>
       </c>
       <c r="X29" s="13">
-        <v>1891</v>
+        <v>11336</v>
       </c>
       <c r="Y29" s="13">
-        <v>11336</v>
+        <v>6175</v>
       </c>
       <c r="Z29" s="13">
-        <v>6175</v>
+        <v>9878</v>
       </c>
       <c r="AA29" s="13">
-        <v>9878</v>
+        <v>12690</v>
       </c>
       <c r="AB29" s="13">
-        <v>12690</v>
+        <v>8774</v>
       </c>
       <c r="AC29" s="13">
-        <v>8774</v>
+        <v>7947</v>
       </c>
       <c r="AD29" s="13">
-        <v>7947</v>
+        <v>11927</v>
       </c>
       <c r="AE29" s="13">
-        <v>11927</v>
+        <v>6023</v>
       </c>
       <c r="AF29" s="13">
-        <v>6023</v>
+        <v>5502</v>
       </c>
       <c r="AG29" s="13">
-        <v>5502</v>
+        <v>10527</v>
       </c>
       <c r="AH29" s="13">
-        <v>10527</v>
+        <v>3099</v>
       </c>
       <c r="AI29" s="13">
-        <v>3099</v>
+        <v>10817</v>
       </c>
       <c r="AJ29" s="13">
-        <v>10817</v>
+        <v>9682</v>
       </c>
       <c r="AK29" s="13">
-        <v>9682</v>
+        <v>7103</v>
       </c>
       <c r="AL29" s="13">
-        <v>7103</v>
+        <v>2575</v>
       </c>
       <c r="AM29" s="13">
-        <v>2575</v>
+        <v>5951</v>
       </c>
       <c r="AN29" s="13">
-        <v>5951</v>
+        <v>2127</v>
       </c>
       <c r="AO29" s="13">
-        <v>2127</v>
+        <v>5700</v>
       </c>
       <c r="AP29" s="13">
-        <v>5700</v>
+        <v>9991</v>
       </c>
       <c r="AQ29" s="13">
-        <v>9991</v>
+        <v>5315</v>
       </c>
       <c r="AR29" s="13">
         <v>4475</v>
       </c>
       <c r="AS29" s="13">
-        <v>0</v>
+        <v>3401</v>
       </c>
       <c r="AT29" s="13">
-        <v>3401</v>
+        <v>450</v>
       </c>
       <c r="AU29" s="13">
-        <v>450</v>
+        <v>2802</v>
       </c>
       <c r="AV29" s="13">
-        <v>2802</v>
+        <v>8533</v>
       </c>
       <c r="AW29" s="13">
-        <v>8533</v>
+        <v>5534</v>
       </c>
       <c r="AX29" s="13">
-        <v>5534</v>
+        <v>2621</v>
       </c>
       <c r="AY29" s="13">
-        <v>2621</v>
+        <v>5940</v>
       </c>
       <c r="AZ29" s="13">
-        <v>5940</v>
+        <v>593</v>
       </c>
       <c r="BA29" s="13">
-        <v>593</v>
+        <v>3014</v>
       </c>
       <c r="BB29" s="13">
-        <v>3014</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3934,32 +3929,32 @@
       <c r="AS30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT30" s="11" t="s">
-        <v>57</v>
+      <c r="AT30" s="11">
+        <v>9484</v>
       </c>
       <c r="AU30" s="11">
-        <v>9484</v>
+        <v>31425</v>
       </c>
       <c r="AV30" s="11">
-        <v>31425</v>
+        <v>34050</v>
       </c>
       <c r="AW30" s="11">
-        <v>34050</v>
+        <v>14575</v>
       </c>
       <c r="AX30" s="11">
-        <v>14575</v>
+        <v>19668</v>
       </c>
       <c r="AY30" s="11">
-        <v>19668</v>
+        <v>49230</v>
       </c>
       <c r="AZ30" s="11">
-        <v>49230</v>
+        <v>42704</v>
       </c>
       <c r="BA30" s="11">
-        <v>42704</v>
+        <v>238200</v>
       </c>
       <c r="BB30" s="11">
-        <v>37064</v>
+        <v>17009</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4093,32 +4088,32 @@
       <c r="AS31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT31" s="13" t="s">
-        <v>57</v>
+      <c r="AT31" s="13">
+        <v>21</v>
       </c>
       <c r="AU31" s="13">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="AV31" s="13">
-        <v>184</v>
+        <v>1724</v>
       </c>
       <c r="AW31" s="13">
-        <v>1724</v>
+        <v>275</v>
       </c>
       <c r="AX31" s="13">
-        <v>275</v>
+        <v>1440</v>
       </c>
       <c r="AY31" s="13">
-        <v>1440</v>
+        <v>1691</v>
       </c>
       <c r="AZ31" s="13">
-        <v>1691</v>
+        <v>116</v>
       </c>
       <c r="BA31" s="13">
-        <v>116</v>
+        <v>1358</v>
       </c>
       <c r="BB31" s="13">
-        <v>1358</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4235,17 +4230,17 @@
       <c r="U33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>57</v>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>0</v>
       </c>
       <c r="Z33" s="17">
         <v>0</v>
@@ -4449,17 +4444,17 @@
       <c r="U35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>57</v>
+      <c r="V35" s="17">
+        <v>0</v>
+      </c>
+      <c r="W35" s="17">
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>0</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
@@ -4556,154 +4551,154 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19">
-        <v>15968</v>
+        <v>18626</v>
       </c>
       <c r="F36" s="19">
-        <v>18626</v>
+        <v>26886</v>
       </c>
       <c r="G36" s="19">
-        <v>26886</v>
+        <v>22830</v>
       </c>
       <c r="H36" s="19">
-        <v>22830</v>
+        <v>22683</v>
       </c>
       <c r="I36" s="19">
-        <v>22683</v>
+        <v>24663</v>
       </c>
       <c r="J36" s="19">
-        <v>24663</v>
+        <v>19238</v>
       </c>
       <c r="K36" s="19">
-        <v>19238</v>
+        <v>19371</v>
       </c>
       <c r="L36" s="19">
-        <v>19371</v>
+        <v>18839</v>
       </c>
       <c r="M36" s="19">
-        <v>18839</v>
+        <v>2122</v>
       </c>
       <c r="N36" s="19">
-        <v>2122</v>
+        <v>19446</v>
       </c>
       <c r="O36" s="19">
-        <v>19446</v>
+        <v>25016</v>
       </c>
       <c r="P36" s="19">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="Q36" s="19">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="R36" s="19">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="S36" s="19">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="T36" s="19">
-        <v>12794</v>
+        <v>25011</v>
       </c>
       <c r="U36" s="19">
-        <v>2706</v>
+        <v>109291</v>
       </c>
       <c r="V36" s="19">
-        <v>26158</v>
+        <v>53799</v>
       </c>
       <c r="W36" s="19">
-        <v>53628</v>
+        <v>39885</v>
       </c>
       <c r="X36" s="19">
-        <v>39506</v>
+        <v>63650</v>
       </c>
       <c r="Y36" s="19">
-        <v>61638</v>
+        <v>24290</v>
       </c>
       <c r="Z36" s="19">
-        <v>21840</v>
+        <v>32840</v>
       </c>
       <c r="AA36" s="19">
-        <v>30220</v>
+        <v>123211</v>
       </c>
       <c r="AB36" s="19">
-        <v>122545</v>
+        <v>41756</v>
       </c>
       <c r="AC36" s="19">
-        <v>38415</v>
+        <v>79471</v>
       </c>
       <c r="AD36" s="19">
-        <v>76084</v>
+        <v>45086</v>
       </c>
       <c r="AE36" s="19">
-        <v>41509</v>
+        <v>80722</v>
       </c>
       <c r="AF36" s="19">
-        <v>80722</v>
+        <v>38236</v>
       </c>
       <c r="AG36" s="19">
-        <v>34631</v>
+        <v>40989</v>
       </c>
       <c r="AH36" s="19">
-        <v>40977</v>
+        <v>30033</v>
       </c>
       <c r="AI36" s="19">
-        <v>30024</v>
+        <v>57811</v>
       </c>
       <c r="AJ36" s="19">
-        <v>57562</v>
+        <v>91725</v>
       </c>
       <c r="AK36" s="19">
-        <v>90793</v>
+        <v>63235</v>
       </c>
       <c r="AL36" s="19">
-        <v>62141</v>
+        <v>41026</v>
       </c>
       <c r="AM36" s="19">
-        <v>39812</v>
+        <v>64081</v>
       </c>
       <c r="AN36" s="19">
-        <v>62633</v>
+        <v>54076</v>
       </c>
       <c r="AO36" s="19">
-        <v>53971</v>
+        <v>27056</v>
       </c>
       <c r="AP36" s="19">
-        <v>25343</v>
+        <v>34328</v>
       </c>
       <c r="AQ36" s="19">
-        <v>32276</v>
+        <v>59762</v>
       </c>
       <c r="AR36" s="19">
-        <v>16017</v>
+        <v>13963</v>
       </c>
       <c r="AS36" s="19">
-        <v>0</v>
+        <v>146692</v>
       </c>
       <c r="AT36" s="19">
-        <v>146692</v>
+        <v>25775</v>
       </c>
       <c r="AU36" s="19">
-        <v>25775</v>
+        <v>52039</v>
       </c>
       <c r="AV36" s="19">
-        <v>52039</v>
+        <v>58557</v>
       </c>
       <c r="AW36" s="19">
-        <v>58557</v>
+        <v>30961</v>
       </c>
       <c r="AX36" s="19">
-        <v>30961</v>
+        <v>47069</v>
       </c>
       <c r="AY36" s="19">
-        <v>47069</v>
+        <v>72490</v>
       </c>
       <c r="AZ36" s="19">
-        <v>72490</v>
+        <v>58439</v>
       </c>
       <c r="BA36" s="19">
-        <v>-99993</v>
+        <v>246587</v>
       </c>
       <c r="BB36" s="19">
-        <v>45451</v>
+        <v>46237</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5197,83 +5192,83 @@
         <v>0</v>
       </c>
       <c r="U43" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" s="11">
-        <v>0</v>
+        <v>1026753</v>
       </c>
       <c r="W43" s="11">
-        <v>1026753</v>
+        <v>194816</v>
       </c>
       <c r="X43" s="11">
-        <v>194816</v>
+        <v>1058841</v>
       </c>
       <c r="Y43" s="11">
-        <v>1058841</v>
+        <v>110820</v>
       </c>
       <c r="Z43" s="11">
-        <v>110820</v>
+        <v>399920</v>
       </c>
       <c r="AA43" s="11">
-        <v>399920</v>
+        <v>3493521</v>
       </c>
       <c r="AB43" s="11">
-        <v>3493521</v>
+        <v>473935</v>
       </c>
       <c r="AC43" s="11">
-        <v>473935</v>
+        <v>2515143</v>
       </c>
       <c r="AD43" s="11">
-        <v>2515143</v>
+        <v>719636</v>
       </c>
       <c r="AE43" s="11">
-        <v>719636</v>
+        <v>3046219</v>
       </c>
       <c r="AF43" s="11">
-        <v>3046219</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="11">
-        <v>0</v>
+        <v>32591</v>
       </c>
       <c r="AH43" s="11">
-        <v>32591</v>
+        <v>26776</v>
       </c>
       <c r="AI43" s="11">
-        <v>26776</v>
+        <v>1077370</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1077370</v>
+        <v>3890774</v>
       </c>
       <c r="AK43" s="11">
-        <v>3890774</v>
+        <v>2324264</v>
       </c>
       <c r="AL43" s="11">
-        <v>2324264</v>
+        <v>1418003</v>
       </c>
       <c r="AM43" s="11">
-        <v>1418003</v>
+        <v>2865832</v>
       </c>
       <c r="AN43" s="11">
-        <v>2865832</v>
+        <v>2614693</v>
       </c>
       <c r="AO43" s="11">
-        <v>2614693</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="11">
-        <v>0</v>
+        <v>67902</v>
       </c>
       <c r="AQ43" s="11">
-        <v>67902</v>
+        <v>4549236</v>
       </c>
       <c r="AR43" s="11">
         <v>461636</v>
       </c>
       <c r="AS43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="11">
         <v>18223350</v>
       </c>
+      <c r="AT43" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU43" s="11" t="s">
         <v>57</v>
       </c>
@@ -5292,11 +5287,11 @@
       <c r="AZ43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA43" s="11">
-        <v>-21628826</v>
-      </c>
-      <c r="BB43" s="11">
-        <v>0</v>
+      <c r="BA43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB43" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5308,37 +5303,37 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>1561</v>
+        <v>604</v>
       </c>
       <c r="F44" s="13">
-        <v>604</v>
+        <v>7601</v>
       </c>
       <c r="G44" s="13">
-        <v>7601</v>
+        <v>1415</v>
       </c>
       <c r="H44" s="13">
-        <v>1415</v>
+        <v>3683</v>
       </c>
       <c r="I44" s="13">
-        <v>3683</v>
+        <v>4228</v>
       </c>
       <c r="J44" s="13">
-        <v>4228</v>
+        <v>671</v>
       </c>
       <c r="K44" s="13">
-        <v>671</v>
+        <v>1157</v>
       </c>
       <c r="L44" s="13">
-        <v>1157</v>
+        <v>3234</v>
       </c>
       <c r="M44" s="13">
-        <v>3234</v>
+        <v>0</v>
       </c>
       <c r="N44" s="13">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="O44" s="13">
-        <v>1538</v>
+        <v>0</v>
       </c>
       <c r="P44" s="13">
         <v>0</v>
@@ -5359,79 +5354,79 @@
         <v>0</v>
       </c>
       <c r="V44" s="13">
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="W44" s="13">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="X44" s="13">
-        <v>0</v>
+        <v>26890</v>
       </c>
       <c r="Y44" s="13">
-        <v>898</v>
+        <v>33865</v>
       </c>
       <c r="Z44" s="13">
-        <v>1464</v>
+        <v>35048</v>
       </c>
       <c r="AA44" s="13">
-        <v>0</v>
+        <v>20217</v>
       </c>
       <c r="AB44" s="13">
-        <v>8901</v>
+        <v>47703</v>
       </c>
       <c r="AC44" s="13">
-        <v>0</v>
+        <v>48931</v>
       </c>
       <c r="AD44" s="13">
-        <v>0</v>
+        <v>57704</v>
       </c>
       <c r="AE44" s="13">
-        <v>4265</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="13">
-        <v>0</v>
+        <v>53917</v>
       </c>
       <c r="AG44" s="13">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="AH44" s="13">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AI44" s="13">
-        <v>0</v>
+        <v>32763</v>
       </c>
       <c r="AJ44" s="13">
-        <v>23044</v>
+        <v>65348</v>
       </c>
       <c r="AK44" s="13">
-        <v>22763</v>
+        <v>51783</v>
       </c>
       <c r="AL44" s="13">
-        <v>0</v>
+        <v>59983</v>
       </c>
       <c r="AM44" s="13">
-        <v>0</v>
+        <v>112390</v>
       </c>
       <c r="AN44" s="13">
-        <v>34788</v>
+        <v>8038</v>
       </c>
       <c r="AO44" s="13">
-        <v>0</v>
+        <v>136539</v>
       </c>
       <c r="AP44" s="13">
-        <v>36233</v>
+        <v>154984</v>
       </c>
       <c r="AQ44" s="13">
-        <v>21557</v>
+        <v>2067</v>
       </c>
       <c r="AR44" s="13">
-        <v>133666</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT44" s="13">
         <v>19839</v>
+      </c>
+      <c r="AT44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU44" s="13" t="s">
         <v>57</v>
@@ -5467,154 +5462,154 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>97057</v>
+        <v>113778</v>
       </c>
       <c r="F45" s="11">
-        <v>113778</v>
+        <v>161761</v>
       </c>
       <c r="G45" s="11">
-        <v>161761</v>
+        <v>139380</v>
       </c>
       <c r="H45" s="11">
-        <v>139380</v>
+        <v>137531</v>
       </c>
       <c r="I45" s="11">
-        <v>137531</v>
+        <v>350559</v>
       </c>
       <c r="J45" s="11">
-        <v>350559</v>
+        <v>308511</v>
       </c>
       <c r="K45" s="11">
-        <v>308511</v>
+        <v>309974</v>
       </c>
       <c r="L45" s="11">
-        <v>309974</v>
+        <v>315589</v>
       </c>
       <c r="M45" s="11">
-        <v>315589</v>
+        <v>36053</v>
       </c>
       <c r="N45" s="11">
-        <v>36053</v>
+        <v>328349</v>
       </c>
       <c r="O45" s="11">
-        <v>328349</v>
+        <v>380193</v>
       </c>
       <c r="P45" s="11">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="Q45" s="11">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="R45" s="11">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="S45" s="11">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="T45" s="11">
-        <v>234795</v>
+        <v>0</v>
       </c>
       <c r="U45" s="11">
-        <v>49661</v>
+        <v>0</v>
       </c>
       <c r="V45" s="11">
-        <v>480052</v>
+        <v>362193</v>
       </c>
       <c r="W45" s="11">
-        <v>362193</v>
+        <v>687240</v>
       </c>
       <c r="X45" s="11">
-        <v>687240</v>
+        <v>353857</v>
       </c>
       <c r="Y45" s="11">
-        <v>353857</v>
+        <v>271184</v>
       </c>
       <c r="Z45" s="11">
-        <v>271184</v>
+        <v>202115</v>
       </c>
       <c r="AA45" s="11">
-        <v>202115</v>
+        <v>491817</v>
       </c>
       <c r="AB45" s="11">
-        <v>491817</v>
+        <v>700992</v>
       </c>
       <c r="AC45" s="11">
-        <v>700992</v>
+        <v>688932</v>
       </c>
       <c r="AD45" s="11">
-        <v>688932</v>
+        <v>548676</v>
       </c>
       <c r="AE45" s="11">
-        <v>548676</v>
+        <v>557748</v>
       </c>
       <c r="AF45" s="11">
-        <v>557748</v>
+        <v>1048644</v>
       </c>
       <c r="AG45" s="11">
-        <v>1048644</v>
+        <v>1078200</v>
       </c>
       <c r="AH45" s="11">
-        <v>1078200</v>
+        <v>1220150</v>
       </c>
       <c r="AI45" s="11">
-        <v>1220150</v>
+        <v>1124516</v>
       </c>
       <c r="AJ45" s="11">
-        <v>1124516</v>
+        <v>568928</v>
       </c>
       <c r="AK45" s="11">
-        <v>568928</v>
+        <v>873540</v>
       </c>
       <c r="AL45" s="11">
-        <v>873540</v>
+        <v>778751</v>
       </c>
       <c r="AM45" s="11">
-        <v>772110</v>
+        <v>905815</v>
       </c>
       <c r="AN45" s="11">
-        <v>905815</v>
+        <v>2125254</v>
       </c>
       <c r="AO45" s="11">
-        <v>1608738</v>
+        <v>1722291</v>
       </c>
       <c r="AP45" s="11">
-        <v>1722291</v>
+        <v>1919442</v>
       </c>
       <c r="AQ45" s="11">
-        <v>1919442</v>
+        <v>2656071</v>
       </c>
       <c r="AR45" s="11">
         <v>574217</v>
       </c>
       <c r="AS45" s="11">
-        <v>0</v>
+        <v>1531367</v>
       </c>
       <c r="AT45" s="11">
-        <v>1531367</v>
+        <v>2295672</v>
       </c>
       <c r="AU45" s="11">
-        <v>2295672</v>
+        <v>1606011</v>
       </c>
       <c r="AV45" s="11">
-        <v>1606011</v>
+        <v>1662248</v>
       </c>
       <c r="AW45" s="11">
-        <v>1662248</v>
+        <v>1233796</v>
       </c>
       <c r="AX45" s="11">
-        <v>1233796</v>
+        <v>2065912</v>
       </c>
       <c r="AY45" s="11">
-        <v>2065912</v>
+        <v>1697357</v>
       </c>
       <c r="AZ45" s="11">
-        <v>1697357</v>
+        <v>1631869</v>
       </c>
       <c r="BA45" s="11">
-        <v>1631869</v>
+        <v>436041</v>
       </c>
       <c r="BB45" s="11">
-        <v>436041</v>
+        <v>2226905</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5670,110 +5665,110 @@
       <c r="S46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>57</v>
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13">
+        <v>0</v>
+      </c>
+      <c r="V46" s="13">
+        <v>9127</v>
       </c>
       <c r="W46" s="13">
-        <v>9127</v>
+        <v>48676</v>
       </c>
       <c r="X46" s="13">
-        <v>48676</v>
+        <v>286241</v>
       </c>
       <c r="Y46" s="13">
-        <v>286241</v>
+        <v>162151</v>
       </c>
       <c r="Z46" s="13">
-        <v>162151</v>
+        <v>293764</v>
       </c>
       <c r="AA46" s="13">
-        <v>293764</v>
+        <v>420303</v>
       </c>
       <c r="AB46" s="13">
-        <v>420303</v>
+        <v>337437</v>
       </c>
       <c r="AC46" s="13">
-        <v>337437</v>
+        <v>331879</v>
       </c>
       <c r="AD46" s="13">
-        <v>331879</v>
+        <v>558464</v>
       </c>
       <c r="AE46" s="13">
-        <v>558464</v>
+        <v>284015</v>
       </c>
       <c r="AF46" s="13">
-        <v>284015</v>
+        <v>268893</v>
       </c>
       <c r="AG46" s="13">
-        <v>268893</v>
+        <v>571384</v>
       </c>
       <c r="AH46" s="13">
-        <v>571384</v>
+        <v>150207</v>
       </c>
       <c r="AI46" s="13">
-        <v>150207</v>
+        <v>593939</v>
       </c>
       <c r="AJ46" s="13">
-        <v>593939</v>
+        <v>546193</v>
       </c>
       <c r="AK46" s="13">
-        <v>546193</v>
+        <v>462553</v>
       </c>
       <c r="AL46" s="13">
-        <v>462553</v>
+        <v>201313</v>
       </c>
       <c r="AM46" s="13">
-        <v>201313</v>
+        <v>488421</v>
       </c>
       <c r="AN46" s="13">
-        <v>488421</v>
+        <v>203870</v>
       </c>
       <c r="AO46" s="13">
-        <v>203870</v>
+        <v>703418</v>
       </c>
       <c r="AP46" s="13">
-        <v>703418</v>
+        <v>1623437</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1623437</v>
+        <v>994576</v>
       </c>
       <c r="AR46" s="13">
         <v>817398</v>
       </c>
       <c r="AS46" s="13">
-        <v>0</v>
+        <v>515416</v>
       </c>
       <c r="AT46" s="13">
-        <v>515416</v>
+        <v>69235</v>
       </c>
       <c r="AU46" s="13">
-        <v>69235</v>
+        <v>444408</v>
       </c>
       <c r="AV46" s="13">
-        <v>444408</v>
+        <v>1199981</v>
       </c>
       <c r="AW46" s="13">
-        <v>1199981</v>
+        <v>669400</v>
       </c>
       <c r="AX46" s="13">
-        <v>669400</v>
+        <v>305549</v>
       </c>
       <c r="AY46" s="13">
-        <v>305549</v>
+        <v>721480</v>
       </c>
       <c r="AZ46" s="13">
-        <v>721480</v>
+        <v>82795</v>
       </c>
       <c r="BA46" s="13">
-        <v>82795</v>
+        <v>420185</v>
       </c>
       <c r="BB46" s="13">
-        <v>420185</v>
+        <v>777523</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5907,32 +5902,32 @@
       <c r="AS47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>57</v>
+      <c r="AT47" s="11">
+        <v>1269420</v>
       </c>
       <c r="AU47" s="11">
-        <v>1269420</v>
+        <v>4264982</v>
       </c>
       <c r="AV47" s="11">
-        <v>4264982</v>
+        <v>4739842</v>
       </c>
       <c r="AW47" s="11">
-        <v>4739842</v>
+        <v>1960084</v>
       </c>
       <c r="AX47" s="11">
-        <v>1960084</v>
+        <v>2730094</v>
       </c>
       <c r="AY47" s="11">
-        <v>2730094</v>
+        <v>6664404</v>
       </c>
       <c r="AZ47" s="11">
-        <v>6664404</v>
+        <v>6138565</v>
       </c>
       <c r="BA47" s="11">
-        <v>6138565</v>
+        <v>32879550</v>
       </c>
       <c r="BB47" s="11">
-        <v>5112159</v>
+        <v>2488596</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6066,32 +6061,32 @@
       <c r="AS48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT48" s="13" t="s">
-        <v>57</v>
+      <c r="AT48" s="13">
+        <v>3432</v>
       </c>
       <c r="AU48" s="13">
-        <v>3432</v>
+        <v>28174</v>
       </c>
       <c r="AV48" s="13">
-        <v>28174</v>
+        <v>309256</v>
       </c>
       <c r="AW48" s="13">
-        <v>309256</v>
+        <v>47921</v>
       </c>
       <c r="AX48" s="13">
-        <v>47921</v>
+        <v>278908</v>
       </c>
       <c r="AY48" s="13">
-        <v>278908</v>
+        <v>337292</v>
       </c>
       <c r="AZ48" s="13">
-        <v>337292</v>
+        <v>24489</v>
       </c>
       <c r="BA48" s="13">
-        <v>24489</v>
+        <v>284456</v>
       </c>
       <c r="BB48" s="13">
-        <v>284456</v>
+        <v>544052</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6210,17 +6205,17 @@
       <c r="U50" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V50" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W50" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y50" s="17" t="s">
-        <v>57</v>
+      <c r="V50" s="17">
+        <v>0</v>
+      </c>
+      <c r="W50" s="17">
+        <v>0</v>
+      </c>
+      <c r="X50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="17">
+        <v>0</v>
       </c>
       <c r="Z50" s="17">
         <v>0</v>
@@ -6426,17 +6421,17 @@
       <c r="U52" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>57</v>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+      <c r="W52" s="17">
+        <v>0</v>
+      </c>
+      <c r="X52" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="17">
+        <v>0</v>
       </c>
       <c r="Z52" s="17">
         <v>0</v>
@@ -6642,17 +6637,17 @@
       <c r="U54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y54" s="11" t="s">
-        <v>57</v>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>0</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
@@ -6749,154 +6744,154 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>98618</v>
+        <v>114382</v>
       </c>
       <c r="F55" s="19">
-        <v>114382</v>
+        <v>169362</v>
       </c>
       <c r="G55" s="19">
-        <v>169362</v>
+        <v>140795</v>
       </c>
       <c r="H55" s="19">
-        <v>140795</v>
+        <v>141214</v>
       </c>
       <c r="I55" s="19">
-        <v>141214</v>
+        <v>354787</v>
       </c>
       <c r="J55" s="19">
-        <v>354787</v>
+        <v>309182</v>
       </c>
       <c r="K55" s="19">
-        <v>309182</v>
+        <v>311131</v>
       </c>
       <c r="L55" s="19">
-        <v>311131</v>
+        <v>318823</v>
       </c>
       <c r="M55" s="19">
-        <v>318823</v>
+        <v>36053</v>
       </c>
       <c r="N55" s="19">
-        <v>36053</v>
+        <v>329887</v>
       </c>
       <c r="O55" s="19">
-        <v>329887</v>
+        <v>380193</v>
       </c>
       <c r="P55" s="19">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="Q55" s="19">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="R55" s="19">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="S55" s="19">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="T55" s="19">
-        <v>234795</v>
+        <v>1</v>
       </c>
       <c r="U55" s="19">
-        <v>49661</v>
+        <v>3</v>
       </c>
       <c r="V55" s="19">
-        <v>480052</v>
+        <v>1400892</v>
       </c>
       <c r="W55" s="19">
-        <v>1398073</v>
+        <v>935975</v>
       </c>
       <c r="X55" s="19">
-        <v>930732</v>
+        <v>1725829</v>
       </c>
       <c r="Y55" s="19">
-        <v>1699837</v>
+        <v>578020</v>
       </c>
       <c r="Z55" s="19">
-        <v>545619</v>
+        <v>930847</v>
       </c>
       <c r="AA55" s="19">
-        <v>895799</v>
+        <v>4425858</v>
       </c>
       <c r="AB55" s="19">
-        <v>4414542</v>
+        <v>1560067</v>
       </c>
       <c r="AC55" s="19">
-        <v>1512364</v>
+        <v>3584885</v>
       </c>
       <c r="AD55" s="19">
-        <v>3535954</v>
+        <v>1884480</v>
       </c>
       <c r="AE55" s="19">
-        <v>1831041</v>
+        <v>3887982</v>
       </c>
       <c r="AF55" s="19">
-        <v>3887982</v>
+        <v>1371454</v>
       </c>
       <c r="AG55" s="19">
-        <v>1317537</v>
+        <v>1682457</v>
       </c>
       <c r="AH55" s="19">
-        <v>1682175</v>
+        <v>1397389</v>
       </c>
       <c r="AI55" s="19">
-        <v>1397133</v>
+        <v>2828588</v>
       </c>
       <c r="AJ55" s="19">
-        <v>2818869</v>
+        <v>5071243</v>
       </c>
       <c r="AK55" s="19">
-        <v>5028658</v>
+        <v>3712140</v>
       </c>
       <c r="AL55" s="19">
-        <v>3660357</v>
+        <v>2458050</v>
       </c>
       <c r="AM55" s="19">
-        <v>2391426</v>
+        <v>4372458</v>
       </c>
       <c r="AN55" s="19">
-        <v>4294856</v>
+        <v>4951855</v>
       </c>
       <c r="AO55" s="19">
-        <v>4427301</v>
+        <v>2562248</v>
       </c>
       <c r="AP55" s="19">
-        <v>2461942</v>
+        <v>3765765</v>
       </c>
       <c r="AQ55" s="19">
-        <v>3632338</v>
+        <v>8201950</v>
       </c>
       <c r="AR55" s="19">
-        <v>1986917</v>
+        <v>1853251</v>
       </c>
       <c r="AS55" s="19">
-        <v>0</v>
+        <v>20289972</v>
       </c>
       <c r="AT55" s="19">
-        <v>20289972</v>
+        <v>3637759</v>
       </c>
       <c r="AU55" s="19">
-        <v>3637759</v>
+        <v>6343575</v>
       </c>
       <c r="AV55" s="19">
-        <v>6343575</v>
+        <v>7911327</v>
       </c>
       <c r="AW55" s="19">
-        <v>7911327</v>
+        <v>3911201</v>
       </c>
       <c r="AX55" s="19">
-        <v>3911201</v>
+        <v>5380463</v>
       </c>
       <c r="AY55" s="19">
-        <v>5380463</v>
+        <v>9420533</v>
       </c>
       <c r="AZ55" s="19">
-        <v>9420533</v>
+        <v>7877718</v>
       </c>
       <c r="BA55" s="19">
-        <v>-13751108</v>
+        <v>34020232</v>
       </c>
       <c r="BB55" s="19">
-        <v>6252841</v>
+        <v>6037076</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7387,86 +7382,86 @@
         <v>0</v>
       </c>
       <c r="T62" s="11">
-        <v>0</v>
+        <v>24601837</v>
       </c>
       <c r="U62" s="11">
-        <v>0</v>
+        <v>25879708</v>
       </c>
       <c r="V62" s="11">
-        <v>0</v>
+        <v>27761336</v>
       </c>
       <c r="W62" s="11">
-        <v>27761336</v>
+        <v>29077015</v>
       </c>
       <c r="X62" s="11">
-        <v>29077015</v>
+        <v>30830451</v>
       </c>
       <c r="Y62" s="11">
-        <v>30830451</v>
+        <v>32574956</v>
       </c>
       <c r="Z62" s="11">
-        <v>32574956</v>
+        <v>35548444</v>
       </c>
       <c r="AA62" s="11">
-        <v>35548444</v>
+        <v>39980785</v>
       </c>
       <c r="AB62" s="11">
-        <v>39980785</v>
+        <v>46605861</v>
       </c>
       <c r="AC62" s="11">
-        <v>46605861</v>
+        <v>51329449</v>
       </c>
       <c r="AD62" s="11">
-        <v>51329449</v>
+        <v>50685730</v>
       </c>
       <c r="AE62" s="11">
-        <v>50685730</v>
+        <v>51451187</v>
       </c>
       <c r="AF62" s="11">
-        <v>51451187</v>
-      </c>
-      <c r="AG62" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="11">
+        <v>65182000</v>
       </c>
       <c r="AH62" s="11">
-        <v>65182000</v>
+        <v>66940000</v>
       </c>
       <c r="AI62" s="11">
-        <v>66940000</v>
+        <v>49422909</v>
       </c>
       <c r="AJ62" s="11">
-        <v>49422909</v>
+        <v>57013525</v>
       </c>
       <c r="AK62" s="11">
-        <v>57013525</v>
+        <v>64476920</v>
       </c>
       <c r="AL62" s="11">
-        <v>64476920</v>
+        <v>69333219</v>
       </c>
       <c r="AM62" s="11">
-        <v>69333219</v>
+        <v>78625806</v>
       </c>
       <c r="AN62" s="11">
-        <v>78625806</v>
+        <v>92424638</v>
       </c>
       <c r="AO62" s="11">
-        <v>92424638</v>
-      </c>
-      <c r="AP62" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AP62" s="11">
+        <v>91021448</v>
       </c>
       <c r="AQ62" s="11">
-        <v>91021448</v>
+        <v>182064113</v>
       </c>
       <c r="AR62" s="11">
         <v>147770807</v>
       </c>
       <c r="AS62" s="11">
-        <v>122335731</v>
-      </c>
-      <c r="AT62" s="11">
         <v>144426877</v>
       </c>
+      <c r="AT62" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU62" s="11" t="s">
         <v>57</v>
       </c>
@@ -7485,8 +7480,8 @@
       <c r="AZ62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA62" s="11">
-        <v>5694024</v>
+      <c r="BA62" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB62" s="11" t="s">
         <v>57</v>
@@ -7501,37 +7496,37 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>12795082</v>
+        <v>12080000</v>
       </c>
       <c r="F63" s="13">
-        <v>12080000</v>
+        <v>15968487</v>
       </c>
       <c r="G63" s="13">
-        <v>15968487</v>
+        <v>19121622</v>
       </c>
       <c r="H63" s="13">
-        <v>19121622</v>
+        <v>16082969</v>
       </c>
       <c r="I63" s="13">
-        <v>16082969</v>
+        <v>13130435</v>
       </c>
       <c r="J63" s="13">
-        <v>13130435</v>
+        <v>12903846</v>
       </c>
       <c r="K63" s="13">
-        <v>12903846</v>
+        <v>12308511</v>
       </c>
       <c r="L63" s="13">
-        <v>12308511</v>
+        <v>12250000</v>
       </c>
       <c r="M63" s="13">
-        <v>12250000</v>
+        <v>0</v>
       </c>
       <c r="N63" s="13">
-        <v>0</v>
+        <v>12816667</v>
       </c>
       <c r="O63" s="13">
-        <v>12816667</v>
+        <v>0</v>
       </c>
       <c r="P63" s="13">
         <v>0</v>
@@ -7546,85 +7541,85 @@
         <v>0</v>
       </c>
       <c r="T63" s="13">
-        <v>0</v>
+        <v>14316384</v>
       </c>
       <c r="U63" s="13">
-        <v>0</v>
+        <v>35004747</v>
       </c>
       <c r="V63" s="13">
-        <v>0</v>
+        <v>16485380</v>
       </c>
       <c r="W63" s="13">
-        <v>16485380</v>
+        <v>13833773</v>
       </c>
       <c r="X63" s="13">
-        <v>13833773</v>
+        <v>13104289</v>
       </c>
       <c r="Y63" s="13">
-        <v>22450000</v>
+        <v>13470565</v>
       </c>
       <c r="Z63" s="13">
-        <v>22875000</v>
-      </c>
-      <c r="AA63" s="13" t="s">
-        <v>57</v>
+        <v>13377099</v>
+      </c>
+      <c r="AA63" s="13">
+        <v>19879056</v>
       </c>
       <c r="AB63" s="13">
-        <v>25358974</v>
-      </c>
-      <c r="AC63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE63" s="13">
-        <v>29825175</v>
-      </c>
-      <c r="AF63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH63" s="13" t="s">
-        <v>57</v>
+        <v>14278060</v>
+      </c>
+      <c r="AC63" s="13">
+        <v>14446708</v>
+      </c>
+      <c r="AD63" s="13">
+        <v>15511828</v>
+      </c>
+      <c r="AE63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF63" s="13">
+        <v>14956172</v>
+      </c>
+      <c r="AG63" s="13">
+        <v>23500000</v>
+      </c>
+      <c r="AH63" s="13">
+        <v>28444444</v>
       </c>
       <c r="AI63" s="13">
-        <v>28444444</v>
+        <v>43742323</v>
       </c>
       <c r="AJ63" s="13">
-        <v>46088000</v>
+        <v>45634078</v>
       </c>
       <c r="AK63" s="13">
-        <v>45526000</v>
-      </c>
-      <c r="AL63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM63" s="13" t="s">
-        <v>57</v>
+        <v>47333638</v>
+      </c>
+      <c r="AL63" s="13">
+        <v>49409390</v>
+      </c>
+      <c r="AM63" s="13">
+        <v>55693756</v>
       </c>
       <c r="AN63" s="13">
-        <v>61031579</v>
-      </c>
-      <c r="AO63" s="13" t="s">
-        <v>57</v>
+        <v>76552381</v>
+      </c>
+      <c r="AO63" s="13">
+        <v>60202381</v>
       </c>
       <c r="AP63" s="13">
-        <v>65284685</v>
+        <v>66861087</v>
       </c>
       <c r="AQ63" s="13">
-        <v>81041353</v>
-      </c>
-      <c r="AR63" s="13">
-        <v>3193921</v>
+        <v>89869565</v>
+      </c>
+      <c r="AR63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS63" s="13">
-        <v>137295729</v>
-      </c>
-      <c r="AT63" s="13">
         <v>139711268</v>
+      </c>
+      <c r="AT63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU63" s="13" t="s">
         <v>57</v>
@@ -7660,76 +7655,76 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>6125016</v>
+        <v>6125000</v>
       </c>
       <c r="F64" s="11">
-        <v>6125000</v>
+        <v>6124991</v>
       </c>
       <c r="G64" s="11">
-        <v>6124991</v>
+        <v>6124978</v>
       </c>
       <c r="H64" s="11">
-        <v>6124978</v>
+        <v>6125011</v>
       </c>
       <c r="I64" s="11">
-        <v>6125011</v>
+        <v>14401997</v>
       </c>
       <c r="J64" s="11">
-        <v>14401997</v>
+        <v>16080006</v>
       </c>
       <c r="K64" s="11">
-        <v>16080006</v>
+        <v>16079992</v>
       </c>
       <c r="L64" s="11">
-        <v>16079992</v>
+        <v>16989987</v>
       </c>
       <c r="M64" s="11">
-        <v>16989987</v>
+        <v>16990104</v>
       </c>
       <c r="N64" s="11">
-        <v>16990104</v>
+        <v>16990013</v>
       </c>
       <c r="O64" s="11">
-        <v>16990013</v>
+        <v>15197993</v>
       </c>
       <c r="P64" s="11">
-        <v>15197993</v>
+        <v>18352005</v>
       </c>
       <c r="Q64" s="11">
-        <v>18352005</v>
+        <v>18352041</v>
       </c>
       <c r="R64" s="11">
-        <v>18352041</v>
+        <v>18351976</v>
       </c>
       <c r="S64" s="11">
-        <v>18351976</v>
+        <v>18351962</v>
       </c>
       <c r="T64" s="11">
-        <v>18351962</v>
+        <v>18352180</v>
       </c>
       <c r="U64" s="11">
-        <v>18352180</v>
+        <v>18352015</v>
       </c>
       <c r="V64" s="11">
-        <v>18352015</v>
+        <v>22229976</v>
       </c>
       <c r="W64" s="11">
-        <v>22229976</v>
+        <v>22229985</v>
       </c>
       <c r="X64" s="11">
-        <v>22229985</v>
+        <v>22229991</v>
       </c>
       <c r="Y64" s="11">
-        <v>22229991</v>
+        <v>22230019</v>
       </c>
       <c r="Z64" s="11">
-        <v>22230019</v>
+        <v>22229982</v>
       </c>
       <c r="AA64" s="11">
-        <v>22229982</v>
+        <v>22230022</v>
       </c>
       <c r="AB64" s="11">
-        <v>22230022</v>
+        <v>36000000</v>
       </c>
       <c r="AC64" s="11">
         <v>36000000</v>
@@ -7747,7 +7742,7 @@
         <v>36000000</v>
       </c>
       <c r="AH64" s="11">
-        <v>36000000</v>
+        <v>46000000</v>
       </c>
       <c r="AI64" s="11">
         <v>46000000</v>
@@ -7759,55 +7754,55 @@
         <v>46000000</v>
       </c>
       <c r="AL64" s="11">
-        <v>46000000</v>
+        <v>46395651</v>
       </c>
       <c r="AM64" s="11">
-        <v>46000000</v>
+        <v>46066979</v>
       </c>
       <c r="AN64" s="11">
-        <v>46066979</v>
+        <v>90229006</v>
       </c>
       <c r="AO64" s="11">
-        <v>68299992</v>
+        <v>90228992</v>
       </c>
       <c r="AP64" s="11">
-        <v>90228992</v>
+        <v>90229023</v>
       </c>
       <c r="AQ64" s="11">
-        <v>90229023</v>
+        <v>90228998</v>
       </c>
       <c r="AR64" s="11">
         <v>90228944</v>
       </c>
       <c r="AS64" s="11">
-        <v>88498608</v>
+        <v>90229024</v>
       </c>
       <c r="AT64" s="11">
-        <v>90229024</v>
+        <v>145112010</v>
       </c>
       <c r="AU64" s="11">
-        <v>145112010</v>
+        <v>91105684</v>
       </c>
       <c r="AV64" s="11">
-        <v>116649203</v>
+        <v>116648982</v>
       </c>
       <c r="AW64" s="11">
-        <v>116648982</v>
+        <v>116648955</v>
       </c>
       <c r="AX64" s="11">
-        <v>116648955</v>
+        <v>88513796</v>
       </c>
       <c r="AY64" s="11">
-        <v>108602994</v>
+        <v>108603046</v>
       </c>
       <c r="AZ64" s="11">
-        <v>108603046</v>
+        <v>108603021</v>
       </c>
       <c r="BA64" s="11">
-        <v>108603021</v>
+        <v>108602989</v>
       </c>
       <c r="BB64" s="11">
-        <v>108602989</v>
+        <v>108603024</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7863,110 +7858,110 @@
       <c r="S65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V65" s="13" t="s">
-        <v>57</v>
+      <c r="T65" s="13">
+        <v>20130922</v>
+      </c>
+      <c r="U65" s="13">
+        <v>23831170</v>
+      </c>
+      <c r="V65" s="13">
+        <v>26077143</v>
       </c>
       <c r="W65" s="13">
-        <v>26077143</v>
+        <v>25740878</v>
       </c>
       <c r="X65" s="13">
-        <v>25740878</v>
+        <v>25250618</v>
       </c>
       <c r="Y65" s="13">
-        <v>25250618</v>
+        <v>26259271</v>
       </c>
       <c r="Z65" s="13">
-        <v>26259271</v>
+        <v>29739218</v>
       </c>
       <c r="AA65" s="13">
-        <v>29739218</v>
+        <v>33120804</v>
       </c>
       <c r="AB65" s="13">
-        <v>33120804</v>
+        <v>38458742</v>
       </c>
       <c r="AC65" s="13">
-        <v>38458742</v>
+        <v>41761545</v>
       </c>
       <c r="AD65" s="13">
-        <v>41761545</v>
+        <v>46823510</v>
       </c>
       <c r="AE65" s="13">
-        <v>46823510</v>
+        <v>47155072</v>
       </c>
       <c r="AF65" s="13">
-        <v>47155072</v>
+        <v>48871865</v>
       </c>
       <c r="AG65" s="13">
-        <v>48871865</v>
+        <v>54277952</v>
       </c>
       <c r="AH65" s="13">
-        <v>54277952</v>
+        <v>48469506</v>
       </c>
       <c r="AI65" s="13">
-        <v>48469506</v>
+        <v>54907923</v>
       </c>
       <c r="AJ65" s="13">
-        <v>54907923</v>
+        <v>56413241</v>
       </c>
       <c r="AK65" s="13">
-        <v>56413241</v>
+        <v>65120794</v>
       </c>
       <c r="AL65" s="13">
-        <v>65120794</v>
+        <v>78179806</v>
       </c>
       <c r="AM65" s="13">
-        <v>78179806</v>
+        <v>82073769</v>
       </c>
       <c r="AN65" s="13">
-        <v>82073769</v>
+        <v>95848613</v>
       </c>
       <c r="AO65" s="13">
-        <v>95848613</v>
+        <v>123406667</v>
       </c>
       <c r="AP65" s="13">
-        <v>123406667</v>
+        <v>162489941</v>
       </c>
       <c r="AQ65" s="13">
-        <v>162489941</v>
+        <v>187126246</v>
       </c>
       <c r="AR65" s="13">
         <v>182658771</v>
       </c>
       <c r="AS65" s="13">
-        <v>149126042</v>
+        <v>151548368</v>
       </c>
       <c r="AT65" s="13">
-        <v>151548368</v>
+        <v>153855556</v>
       </c>
       <c r="AU65" s="13">
-        <v>153855556</v>
+        <v>158603854</v>
       </c>
       <c r="AV65" s="13">
-        <v>158603854</v>
+        <v>140628267</v>
       </c>
       <c r="AW65" s="13">
-        <v>140628267</v>
+        <v>120961330</v>
       </c>
       <c r="AX65" s="13">
-        <v>120961330</v>
+        <v>116577261</v>
       </c>
       <c r="AY65" s="13">
-        <v>116577261</v>
+        <v>121461279</v>
       </c>
       <c r="AZ65" s="13">
-        <v>121461279</v>
+        <v>139620573</v>
       </c>
       <c r="BA65" s="13">
-        <v>139620573</v>
+        <v>139411082</v>
       </c>
       <c r="BB65" s="13">
-        <v>139411082</v>
+        <v>128388871</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8100,32 +8095,32 @@
       <c r="AS66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT66" s="11" t="s">
-        <v>57</v>
+      <c r="AT66" s="11">
+        <v>133848587</v>
       </c>
       <c r="AU66" s="11">
-        <v>133848587</v>
+        <v>135719395</v>
       </c>
       <c r="AV66" s="11">
-        <v>135719395</v>
+        <v>139202408</v>
       </c>
       <c r="AW66" s="11">
-        <v>139202408</v>
+        <v>134482607</v>
       </c>
       <c r="AX66" s="11">
-        <v>134482607</v>
+        <v>138808928</v>
       </c>
       <c r="AY66" s="11">
-        <v>138808928</v>
+        <v>135372821</v>
       </c>
       <c r="AZ66" s="11">
-        <v>135372821</v>
+        <v>143746839</v>
       </c>
       <c r="BA66" s="11">
-        <v>143746839</v>
+        <v>138033375</v>
       </c>
       <c r="BB66" s="11">
-        <v>137927882</v>
+        <v>146310541</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8259,32 +8254,32 @@
       <c r="AS67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT67" s="13" t="s">
-        <v>57</v>
+      <c r="AT67" s="13">
+        <v>163428571</v>
       </c>
       <c r="AU67" s="13">
-        <v>163428571</v>
+        <v>153119565</v>
       </c>
       <c r="AV67" s="13">
-        <v>153119565</v>
+        <v>179382831</v>
       </c>
       <c r="AW67" s="13">
-        <v>179382831</v>
+        <v>174258182</v>
       </c>
       <c r="AX67" s="13">
-        <v>174258182</v>
+        <v>193686111</v>
       </c>
       <c r="AY67" s="13">
-        <v>193686111</v>
+        <v>199463040</v>
       </c>
       <c r="AZ67" s="13">
-        <v>199463040</v>
+        <v>211112069</v>
       </c>
       <c r="BA67" s="13">
-        <v>211112069</v>
+        <v>209466863</v>
       </c>
       <c r="BB67" s="13">
-        <v>209466863</v>
+        <v>203994001</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/urea/kermasha/product/monthly.xlsx
+++ b/database/industries/urea/kermasha/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3225,118 +3225,118 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>55846</v>
+        <v>47135</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>47135</v>
+        <v>53926</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>53926</v>
+        <v>58519</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>58519</v>
+        <v>63927</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>63927</v>
+        <v>35437</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>35437</v>
+        <v>63109</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>63109</v>
+        <v>62848</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>62848</v>
+        <v>61680</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>61680</v>
+        <v>55335</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>55335</v>
+        <v>47158</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>47158</v>
+        <v>39355</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>39355</v>
+        <v>10909</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>10909</v>
+        <v>55912</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>55912</v>
+        <v>54184</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>54184</v>
+        <v>62586</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>62586</v>
+        <v>63483</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>63483</v>
+        <v>63335</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>63335</v>
+        <v>63502</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>63502</v>
+        <v>63454</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>63454</v>
+        <v>62027</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>62027</v>
+        <v>61492</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>61492</v>
+        <v>60794</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>60794</v>
+        <v>12332</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>12332</v>
+        <v>51999</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>51999</v>
+        <v>62086</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>62086</v>
+        <v>63660</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>63660</v>
+        <v>63814</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>63814</v>
+        <v>63630</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>63630</v>
+        <v>62584</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>62584</v>
+        <v>60362</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>60362</v>
+        <v>63629</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>63629</v>
+        <v>61510</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>61510</v>
+        <v>59816</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>59816</v>
+        <v>57748</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>57748</v>
+        <v>50096</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>50096</v>
+        <v>7180</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>7180</v>
-      </c>
-      <c r="AP11" s="12" t="n">
         <v>56986</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>57</v>
@@ -3384,118 +3384,118 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>31420</v>
+        <v>27250</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>27250</v>
+        <v>30365</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>30365</v>
+        <v>32936</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>32936</v>
+        <v>36183</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>36183</v>
+        <v>25448</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>25448</v>
+        <v>35656</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>35656</v>
+        <v>36150</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>36150</v>
+        <v>34393</v>
       </c>
       <c r="M12" s="15" t="n">
-        <v>34393</v>
+        <v>31433</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>31433</v>
+        <v>26318</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>26318</v>
+        <v>22451</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>22451</v>
+        <v>6030</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>6030</v>
+        <v>32332</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>32332</v>
+        <v>34329</v>
       </c>
       <c r="S12" s="15" t="n">
-        <v>34329</v>
+        <v>36014</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>36014</v>
+        <v>36055</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>36055</v>
+        <v>36067</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>36067</v>
+        <v>36047</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>36047</v>
+        <v>36215</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>36215</v>
+        <v>35224</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>35224</v>
+        <v>34939</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>34939</v>
+        <v>34877</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>34877</v>
+        <v>6677</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>6677</v>
+        <v>30461</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>30461</v>
+        <v>35880</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>35880</v>
+        <v>37102</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>37102</v>
+        <v>37095</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>37095</v>
+        <v>36763</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>36763</v>
+        <v>35785</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>35785</v>
+        <v>32988</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>32988</v>
+        <v>36360</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>36360</v>
+        <v>35766</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>35766</v>
+        <v>33819</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>33819</v>
+        <v>33446</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>33446</v>
+        <v>29016</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>29016</v>
+        <v>3597</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>3597</v>
-      </c>
-      <c r="AP12" s="15" t="n">
         <v>32944</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>57</v>
@@ -3734,8 +3734,8 @@
       <c r="O14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="16" t="s">
-        <v>57</v>
+      <c r="P14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Q14" s="16" t="n">
         <v>0</v>
@@ -3971,44 +3971,44 @@
       <c r="AO15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>57</v>
+      <c r="AP15" s="13" t="n">
+        <v>63052</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>63052</v>
+        <v>63444</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>63444</v>
+        <v>63398</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>63398</v>
+        <v>62459</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>62459</v>
+        <v>63085</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>63085</v>
+        <v>50585</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>50585</v>
+        <v>58636</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>58636</v>
+        <v>59732</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>59732</v>
+        <v>50708</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>50708</v>
+        <v>15149</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>15149</v>
+        <v>12530</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>12530</v>
+        <v>56589</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>56589</v>
+        <v>63081</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,44 +4130,44 @@
       <c r="AO16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>57</v>
+      <c r="AP16" s="16" t="n">
+        <v>36701</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>36701</v>
+        <v>36972</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>36972</v>
+        <v>37038</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>37038</v>
+        <v>36849</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>36849</v>
+        <v>36394</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>36394</v>
+        <v>32156</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>32156</v>
+        <v>34537</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>34537</v>
+        <v>34132</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>34132</v>
+        <v>29534</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>29534</v>
+        <v>9283</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>9283</v>
+        <v>7533</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>7533</v>
+        <v>33428</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>33428</v>
+        <v>36947</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,8 +4319,8 @@
       <c r="AY17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ17" s="13" t="s">
-        <v>57</v>
+      <c r="AZ17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA17" s="13" t="n">
         <v>0</v>
@@ -4478,8 +4478,8 @@
       <c r="AY18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AZ18" s="16" t="s">
-        <v>57</v>
+      <c r="AZ18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
         <v>0</v>
@@ -4590,8 +4590,8 @@
       <c r="Q20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="20" t="s">
-        <v>57</v>
+      <c r="R20" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S20" s="20" t="n">
         <v>0</v>
@@ -4709,154 +4709,154 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="n">
-        <v>87266</v>
+        <v>74385</v>
       </c>
       <c r="F21" s="22" t="n">
-        <v>74385</v>
+        <v>84291</v>
       </c>
       <c r="G21" s="22" t="n">
-        <v>84291</v>
+        <v>91455</v>
       </c>
       <c r="H21" s="22" t="n">
-        <v>91455</v>
+        <v>100110</v>
       </c>
       <c r="I21" s="22" t="n">
-        <v>100110</v>
+        <v>60885</v>
       </c>
       <c r="J21" s="22" t="n">
-        <v>60885</v>
+        <v>98765</v>
       </c>
       <c r="K21" s="22" t="n">
-        <v>98765</v>
+        <v>98998</v>
       </c>
       <c r="L21" s="22" t="n">
-        <v>98998</v>
+        <v>96073</v>
       </c>
       <c r="M21" s="22" t="n">
-        <v>96073</v>
+        <v>86768</v>
       </c>
       <c r="N21" s="22" t="n">
-        <v>86768</v>
+        <v>73476</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>73476</v>
+        <v>61806</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>61806</v>
+        <v>16939</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>16939</v>
+        <v>88244</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>88244</v>
+        <v>88513</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>88513</v>
+        <v>98600</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>98600</v>
+        <v>99538</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>99538</v>
+        <v>99402</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>99402</v>
+        <v>99549</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>99549</v>
+        <v>99669</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>99669</v>
+        <v>97251</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>97251</v>
+        <v>96431</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>96431</v>
+        <v>95671</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>95671</v>
+        <v>19009</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>19009</v>
+        <v>82460</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>82460</v>
+        <v>97966</v>
       </c>
       <c r="AD21" s="22" t="n">
-        <v>97966</v>
+        <v>100762</v>
       </c>
       <c r="AE21" s="22" t="n">
-        <v>100762</v>
+        <v>100909</v>
       </c>
       <c r="AF21" s="22" t="n">
-        <v>100909</v>
+        <v>100393</v>
       </c>
       <c r="AG21" s="22" t="n">
-        <v>100393</v>
+        <v>98369</v>
       </c>
       <c r="AH21" s="22" t="n">
-        <v>98369</v>
+        <v>93350</v>
       </c>
       <c r="AI21" s="22" t="n">
-        <v>93350</v>
+        <v>99989</v>
       </c>
       <c r="AJ21" s="22" t="n">
-        <v>99989</v>
+        <v>97276</v>
       </c>
       <c r="AK21" s="22" t="n">
-        <v>97276</v>
+        <v>93635</v>
       </c>
       <c r="AL21" s="22" t="n">
-        <v>93635</v>
+        <v>91194</v>
       </c>
       <c r="AM21" s="22" t="n">
-        <v>91194</v>
+        <v>79112</v>
       </c>
       <c r="AN21" s="22" t="n">
-        <v>79112</v>
+        <v>10777</v>
       </c>
       <c r="AO21" s="22" t="n">
-        <v>10777</v>
+        <v>89930</v>
       </c>
       <c r="AP21" s="22" t="n">
-        <v>89930</v>
+        <v>99753</v>
       </c>
       <c r="AQ21" s="22" t="n">
-        <v>99753</v>
+        <v>100416</v>
       </c>
       <c r="AR21" s="22" t="n">
-        <v>100416</v>
+        <v>100436</v>
       </c>
       <c r="AS21" s="22" t="n">
-        <v>100436</v>
+        <v>99308</v>
       </c>
       <c r="AT21" s="22" t="n">
-        <v>99308</v>
+        <v>99479</v>
       </c>
       <c r="AU21" s="22" t="n">
-        <v>99479</v>
+        <v>82741</v>
       </c>
       <c r="AV21" s="22" t="n">
-        <v>82741</v>
+        <v>93173</v>
       </c>
       <c r="AW21" s="22" t="n">
-        <v>93173</v>
+        <v>93864</v>
       </c>
       <c r="AX21" s="22" t="n">
-        <v>93864</v>
+        <v>80242</v>
       </c>
       <c r="AY21" s="22" t="n">
-        <v>80242</v>
+        <v>24432</v>
       </c>
       <c r="AZ21" s="22" t="n">
-        <v>24432</v>
+        <v>20063</v>
       </c>
       <c r="BA21" s="22" t="n">
-        <v>20063</v>
+        <v>90017</v>
       </c>
       <c r="BB21" s="22" t="n">
-        <v>90017</v>
+        <v>100028</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,85 +5335,85 @@
         <v>0</v>
       </c>
       <c r="P28" s="13" t="n">
-        <v>0</v>
+        <v>14803</v>
       </c>
       <c r="Q28" s="13" t="n">
-        <v>14803</v>
+        <v>73122</v>
       </c>
       <c r="R28" s="13" t="n">
-        <v>73122</v>
+        <v>36985</v>
       </c>
       <c r="S28" s="13" t="n">
-        <v>36985</v>
+        <v>6700</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>6700</v>
+        <v>34344</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>34344</v>
+        <v>3402</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>3402</v>
+        <v>11250</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>11250</v>
+        <v>87380</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>87380</v>
+        <v>10169</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>10169</v>
+        <v>49000</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>49000</v>
+        <v>14198</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>14198</v>
+        <v>59206</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>59206</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>400</v>
+        <v>21799</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>21799</v>
+        <v>68243</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>68243</v>
+        <v>36048</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>36048</v>
+        <v>20452</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>20452</v>
+        <v>36449</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>36449</v>
+        <v>28290</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>28290</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>746</v>
+        <v>24987</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>24987</v>
+        <v>3124</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>3124</v>
-      </c>
-      <c r="AP28" s="13" t="n">
         <v>126177</v>
+      </c>
+      <c r="AP28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ28" s="13" t="s">
         <v>57</v>
@@ -5461,118 +5461,118 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16" t="n">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="16" t="n">
+        <v>688</v>
+      </c>
+      <c r="R29" s="16" t="n">
+        <v>171</v>
+      </c>
+      <c r="S29" s="16" t="n">
+        <v>379</v>
+      </c>
+      <c r="T29" s="16" t="n">
+        <v>1502</v>
+      </c>
+      <c r="U29" s="16" t="n">
+        <v>502</v>
+      </c>
+      <c r="V29" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="W29" s="16" t="n">
+        <v>1017</v>
+      </c>
+      <c r="X29" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z29" s="16" t="n">
+        <v>333</v>
+      </c>
+      <c r="AA29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC29" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="16" t="n">
+        <v>740</v>
+      </c>
+      <c r="AF29" s="16" t="n">
+        <v>1183</v>
+      </c>
+      <c r="AG29" s="16" t="n">
+        <v>162</v>
+      </c>
+      <c r="AH29" s="16" t="n">
         <v>120</v>
       </c>
-      <c r="L29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="16" t="n">
-        <v>177</v>
-      </c>
-      <c r="R29" s="16" t="n">
-        <v>688</v>
-      </c>
-      <c r="S29" s="16" t="n">
-        <v>171</v>
-      </c>
-      <c r="T29" s="16" t="n">
-        <v>379</v>
-      </c>
-      <c r="U29" s="16" t="n">
-        <v>1502</v>
-      </c>
-      <c r="V29" s="16" t="n">
-        <v>502</v>
-      </c>
-      <c r="W29" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="X29" s="16" t="n">
-        <v>1017</v>
-      </c>
-      <c r="Y29" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z29" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA29" s="16" t="n">
-        <v>333</v>
-      </c>
-      <c r="AB29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD29" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE29" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF29" s="16" t="n">
-        <v>740</v>
-      </c>
-      <c r="AG29" s="16" t="n">
-        <v>1183</v>
-      </c>
-      <c r="AH29" s="16" t="n">
-        <v>162</v>
-      </c>
       <c r="AI29" s="16" t="n">
-        <v>120</v>
+        <v>804</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>804</v>
+        <v>105</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>105</v>
+        <v>715</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>715</v>
+        <v>605</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>605</v>
+        <v>23</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="16" t="n">
         <v>142</v>
+      </c>
+      <c r="AP29" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ29" s="16" t="s">
         <v>57</v>
@@ -5620,154 +5620,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>22454</v>
+        <v>24341</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>24341</v>
+        <v>19186</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>19186</v>
+        <v>19277</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>19277</v>
+        <v>18575</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>18575</v>
+        <v>2122</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>2122</v>
+        <v>19326</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>19326</v>
+        <v>25016</v>
       </c>
       <c r="L30" s="13" t="n">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="M30" s="13" t="n">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="N30" s="13" t="n">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="O30" s="13" t="n">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="P30" s="13" t="n">
-        <v>12794</v>
+        <v>2706</v>
       </c>
       <c r="Q30" s="13" t="n">
-        <v>2706</v>
+        <v>26158</v>
       </c>
       <c r="R30" s="13" t="n">
-        <v>26158</v>
+        <v>16293</v>
       </c>
       <c r="S30" s="13" t="n">
-        <v>16293</v>
+        <v>30915</v>
       </c>
       <c r="T30" s="13" t="n">
-        <v>30915</v>
+        <v>15918</v>
       </c>
       <c r="U30" s="13" t="n">
-        <v>15918</v>
+        <v>12199</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>12199</v>
+        <v>9092</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>9092</v>
+        <v>22124</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>22124</v>
+        <v>19472</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>19472</v>
+        <v>19137</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>19137</v>
+        <v>15241</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>15241</v>
+        <v>15493</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>15493</v>
+        <v>29129</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>29129</v>
+        <v>29950</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>29950</v>
+        <v>26525</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>26525</v>
+        <v>24446</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>24446</v>
+        <v>12368</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>12368</v>
+        <v>18990</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>18990</v>
+        <v>16785</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>16785</v>
+        <v>19663</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>19663</v>
+        <v>23554</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>23554</v>
+        <v>19088</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>19088</v>
+        <v>21273</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>21273</v>
+        <v>29437</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>29437</v>
+        <v>6364</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>6364</v>
+        <v>16972</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>16972</v>
+        <v>15820</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>15820</v>
+        <v>17628</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>17628</v>
+        <v>14250</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>14250</v>
+        <v>10577</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>10577</v>
+        <v>23340</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>23340</v>
+        <v>15629</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>15629</v>
+        <v>15026</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>15026</v>
+        <v>4015</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>4015</v>
+        <v>20505</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>20505</v>
+        <v>19826</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>19826</v>
+        <v>7383</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>7383</v>
+        <v>19507</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>19507</v>
+        <v>18904</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,122 +5811,122 @@
       <c r="O31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P31" s="16" t="s">
-        <v>57</v>
+      <c r="P31" s="16" t="n">
+        <v>7325</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>7325</v>
+        <v>9323</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>9323</v>
+        <v>350</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>350</v>
+        <v>1891</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>1891</v>
+        <v>11336</v>
       </c>
       <c r="U31" s="16" t="n">
-        <v>11336</v>
+        <v>6175</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>6175</v>
+        <v>9878</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>9878</v>
+        <v>12690</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>12690</v>
+        <v>8774</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>8774</v>
+        <v>7947</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>7947</v>
+        <v>11927</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>11927</v>
+        <v>6023</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>6023</v>
+        <v>5502</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>5502</v>
+        <v>10527</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>10527</v>
+        <v>3099</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>3099</v>
+        <v>10817</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>10817</v>
+        <v>9682</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>9682</v>
+        <v>7103</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>7103</v>
+        <v>2575</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>2575</v>
+        <v>5951</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>5951</v>
+        <v>2127</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>2127</v>
+        <v>5700</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>5700</v>
+        <v>9991</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>9991</v>
+        <v>5315</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>5315</v>
+        <v>4475</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>4475</v>
+        <v>3401</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>3401</v>
+        <v>450</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>450</v>
+        <v>2802</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>2802</v>
+        <v>8533</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>8533</v>
+        <v>5534</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>5534</v>
+        <v>2621</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>2621</v>
+        <v>5940</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>5940</v>
+        <v>593</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>593</v>
+        <v>3014</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>3014</v>
+        <v>6056</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>6056</v>
+        <v>2436</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>2436</v>
+        <v>3006</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>3006</v>
+        <v>4915</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>4915</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,38 +6048,38 @@
       <c r="AO32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>57</v>
+      <c r="AP32" s="13" t="n">
+        <v>9484</v>
       </c>
       <c r="AQ32" s="13" t="n">
-        <v>9484</v>
+        <v>31425</v>
       </c>
       <c r="AR32" s="13" t="n">
-        <v>31425</v>
+        <v>34050</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>34050</v>
+        <v>14575</v>
       </c>
       <c r="AT32" s="13" t="n">
-        <v>14575</v>
+        <v>19668</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>19668</v>
+        <v>49230</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>49230</v>
+        <v>42704</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>42704</v>
+        <v>37064</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>37064</v>
+        <v>17009</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>17009</v>
+        <v>67770</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>67770</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="13" t="n">
         <v>0</v>
@@ -6207,44 +6207,44 @@
       <c r="AO33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP33" s="16" t="s">
-        <v>57</v>
+      <c r="AP33" s="16" t="n">
+        <v>21</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>184</v>
+        <v>1724</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>1724</v>
+        <v>275</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>275</v>
+        <v>1440</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>1440</v>
+        <v>1691</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>1691</v>
+        <v>116</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>116</v>
+        <v>1358</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>1358</v>
+        <v>2667</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>2667</v>
+        <v>771</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>771</v>
+        <v>1162</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>1162</v>
+        <v>949</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>949</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,14 +6396,14 @@
       <c r="AY34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ34" s="13" t="s">
-        <v>57</v>
+      <c r="AZ34" s="13" t="n">
+        <v>15612</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>15612</v>
+        <v>22479</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>22479</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,14 +6555,14 @@
       <c r="AY35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AZ35" s="16" t="s">
-        <v>57</v>
+      <c r="AZ35" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>30500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,8 +6667,8 @@
       <c r="Q37" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="20" t="s">
-        <v>57</v>
+      <c r="R37" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S37" s="20" t="n">
         <v>0</v>
@@ -6881,8 +6881,8 @@
       <c r="Q39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="20" t="s">
-        <v>57</v>
+      <c r="R39" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S39" s="20" t="n">
         <v>0</v>
@@ -7000,154 +7000,154 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="n">
-        <v>22683</v>
+        <v>24663</v>
       </c>
       <c r="F40" s="22" t="n">
-        <v>24663</v>
+        <v>19238</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>19238</v>
+        <v>19371</v>
       </c>
       <c r="H40" s="22" t="n">
-        <v>19371</v>
+        <v>18839</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>18839</v>
+        <v>2122</v>
       </c>
       <c r="J40" s="22" t="n">
-        <v>2122</v>
+        <v>19446</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>19446</v>
+        <v>25016</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>25016</v>
+        <v>30653</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>30653</v>
+        <v>11047</v>
       </c>
       <c r="N40" s="22" t="n">
-        <v>11047</v>
+        <v>7921</v>
       </c>
       <c r="O40" s="22" t="n">
-        <v>7921</v>
+        <v>12794</v>
       </c>
       <c r="P40" s="22" t="n">
-        <v>12794</v>
+        <v>25011</v>
       </c>
       <c r="Q40" s="22" t="n">
-        <v>25011</v>
+        <v>109291</v>
       </c>
       <c r="R40" s="22" t="n">
-        <v>109291</v>
+        <v>53799</v>
       </c>
       <c r="S40" s="22" t="n">
-        <v>53799</v>
+        <v>39885</v>
       </c>
       <c r="T40" s="22" t="n">
-        <v>39885</v>
+        <v>63100</v>
       </c>
       <c r="U40" s="22" t="n">
-        <v>63100</v>
+        <v>22278</v>
       </c>
       <c r="V40" s="22" t="n">
-        <v>22278</v>
+        <v>30390</v>
       </c>
       <c r="W40" s="22" t="n">
-        <v>30390</v>
+        <v>123211</v>
       </c>
       <c r="X40" s="22" t="n">
-        <v>123211</v>
+        <v>38470</v>
       </c>
       <c r="Y40" s="22" t="n">
-        <v>38470</v>
+        <v>76130</v>
       </c>
       <c r="Z40" s="22" t="n">
-        <v>76130</v>
+        <v>41699</v>
       </c>
       <c r="AA40" s="22" t="n">
-        <v>41699</v>
+        <v>80722</v>
       </c>
       <c r="AB40" s="22" t="n">
-        <v>80722</v>
+        <v>34659</v>
       </c>
       <c r="AC40" s="22" t="n">
-        <v>34659</v>
+        <v>40989</v>
       </c>
       <c r="AD40" s="22" t="n">
-        <v>40989</v>
+        <v>30033</v>
       </c>
       <c r="AE40" s="22" t="n">
-        <v>30033</v>
+        <v>57802</v>
       </c>
       <c r="AF40" s="22" t="n">
-        <v>57802</v>
+        <v>91476</v>
       </c>
       <c r="AG40" s="22" t="n">
-        <v>91476</v>
+        <v>62303</v>
       </c>
       <c r="AH40" s="22" t="n">
-        <v>62303</v>
+        <v>39932</v>
       </c>
       <c r="AI40" s="22" t="n">
-        <v>39932</v>
+        <v>62867</v>
       </c>
       <c r="AJ40" s="22" t="n">
-        <v>62867</v>
+        <v>54076</v>
       </c>
       <c r="AK40" s="22" t="n">
-        <v>54076</v>
+        <v>25503</v>
       </c>
       <c r="AL40" s="22" t="n">
-        <v>25503</v>
+        <v>32615</v>
       </c>
       <c r="AM40" s="22" t="n">
-        <v>32615</v>
+        <v>59762</v>
       </c>
       <c r="AN40" s="22" t="n">
-        <v>59762</v>
+        <v>13963</v>
       </c>
       <c r="AO40" s="22" t="n">
-        <v>13963</v>
+        <v>146692</v>
       </c>
       <c r="AP40" s="22" t="n">
-        <v>146692</v>
+        <v>25775</v>
       </c>
       <c r="AQ40" s="22" t="n">
-        <v>25775</v>
+        <v>52039</v>
       </c>
       <c r="AR40" s="22" t="n">
-        <v>52039</v>
+        <v>58557</v>
       </c>
       <c r="AS40" s="22" t="n">
-        <v>58557</v>
+        <v>30961</v>
       </c>
       <c r="AT40" s="22" t="n">
-        <v>30961</v>
+        <v>47069</v>
       </c>
       <c r="AU40" s="22" t="n">
-        <v>47069</v>
+        <v>72490</v>
       </c>
       <c r="AV40" s="22" t="n">
-        <v>72490</v>
+        <v>58439</v>
       </c>
       <c r="AW40" s="22" t="n">
-        <v>58439</v>
+        <v>45451</v>
       </c>
       <c r="AX40" s="22" t="n">
-        <v>45451</v>
+        <v>46237</v>
       </c>
       <c r="AY40" s="22" t="n">
-        <v>46237</v>
+        <v>90803</v>
       </c>
       <c r="AZ40" s="22" t="n">
-        <v>90803</v>
+        <v>27163</v>
       </c>
       <c r="BA40" s="22" t="n">
-        <v>27163</v>
+        <v>78350</v>
       </c>
       <c r="BB40" s="22" t="n">
-        <v>78350</v>
+        <v>28260</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,82 +7629,82 @@
         <v>0</v>
       </c>
       <c r="Q47" s="13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" s="13" t="n">
-        <v>2</v>
+        <v>1026753</v>
       </c>
       <c r="S47" s="13" t="n">
-        <v>1026753</v>
+        <v>194816</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>194816</v>
+        <v>1058841</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>1058841</v>
+        <v>110820</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>110820</v>
+        <v>399920</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>399920</v>
+        <v>3493521</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>3493521</v>
+        <v>473935</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>473935</v>
+        <v>2515143</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>2515143</v>
+        <v>719636</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>719636</v>
+        <v>3046219</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>3046219</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>0</v>
+        <v>32591</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>32591</v>
+        <v>26776</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>26776</v>
+        <v>1077370</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>1077370</v>
+        <v>3890774</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>3890774</v>
+        <v>2324264</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>2324264</v>
+        <v>1418003</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>1418003</v>
+        <v>2865832</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>2865832</v>
+        <v>2614693</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>2614693</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>0</v>
+        <v>67902</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>67902</v>
+        <v>4549236</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>4549236</v>
+        <v>461636</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>461636</v>
-      </c>
-      <c r="AP47" s="13" t="n">
         <v>18223350</v>
+      </c>
+      <c r="AP47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ47" s="13" t="s">
         <v>57</v>
@@ -7752,25 +7752,25 @@
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="n">
-        <v>3683</v>
+        <v>4228</v>
       </c>
       <c r="F48" s="16" t="n">
-        <v>4228</v>
+        <v>671</v>
       </c>
       <c r="G48" s="16" t="n">
-        <v>671</v>
+        <v>1157</v>
       </c>
       <c r="H48" s="16" t="n">
-        <v>1157</v>
+        <v>3234</v>
       </c>
       <c r="I48" s="16" t="n">
-        <v>3234</v>
+        <v>0</v>
       </c>
       <c r="J48" s="16" t="n">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="K48" s="16" t="n">
-        <v>1538</v>
+        <v>0</v>
       </c>
       <c r="L48" s="16" t="n">
         <v>0</v>
@@ -7791,79 +7791,79 @@
         <v>0</v>
       </c>
       <c r="R48" s="16" t="n">
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="S48" s="16" t="n">
-        <v>2819</v>
+        <v>5243</v>
       </c>
       <c r="T48" s="16" t="n">
-        <v>5243</v>
+        <v>18828</v>
       </c>
       <c r="U48" s="16" t="n">
-        <v>18828</v>
+        <v>7873</v>
       </c>
       <c r="V48" s="16" t="n">
-        <v>7873</v>
+        <v>2647</v>
       </c>
       <c r="W48" s="16" t="n">
-        <v>2647</v>
+        <v>20217</v>
       </c>
       <c r="X48" s="16" t="n">
-        <v>20217</v>
+        <v>1339</v>
       </c>
       <c r="Y48" s="16" t="n">
-        <v>1339</v>
+        <v>1228</v>
       </c>
       <c r="Z48" s="16" t="n">
-        <v>1228</v>
+        <v>8773</v>
       </c>
       <c r="AA48" s="16" t="n">
-        <v>8773</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="16" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AC48" s="16" t="n">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="AD48" s="16" t="n">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="AE48" s="16" t="n">
-        <v>256</v>
+        <v>32507</v>
       </c>
       <c r="AF48" s="16" t="n">
-        <v>32507</v>
+        <v>55629</v>
       </c>
       <c r="AG48" s="16" t="n">
-        <v>55629</v>
+        <v>9198</v>
       </c>
       <c r="AH48" s="16" t="n">
-        <v>9198</v>
+        <v>8200</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>8200</v>
+        <v>52407</v>
       </c>
       <c r="AJ48" s="16" t="n">
-        <v>52407</v>
+        <v>8038</v>
       </c>
       <c r="AK48" s="16" t="n">
-        <v>8038</v>
+        <v>50899</v>
       </c>
       <c r="AL48" s="16" t="n">
-        <v>50899</v>
+        <v>54678</v>
       </c>
       <c r="AM48" s="16" t="n">
-        <v>54678</v>
+        <v>2067</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>2067</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP48" s="16" t="n">
         <v>19839</v>
+      </c>
+      <c r="AP48" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ48" s="16" t="s">
         <v>57</v>
@@ -7911,154 +7911,154 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="n">
-        <v>137531</v>
+        <v>350559</v>
       </c>
       <c r="F49" s="13" t="n">
-        <v>350559</v>
+        <v>308511</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>308511</v>
+        <v>309974</v>
       </c>
       <c r="H49" s="13" t="n">
-        <v>309974</v>
+        <v>315589</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>315589</v>
+        <v>36053</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>36053</v>
+        <v>328349</v>
       </c>
       <c r="K49" s="13" t="n">
-        <v>328349</v>
+        <v>380193</v>
       </c>
       <c r="L49" s="13" t="n">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="M49" s="13" t="n">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="N49" s="13" t="n">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="P49" s="13" t="n">
-        <v>234795</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="13" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="13" t="n">
-        <v>0</v>
+        <v>362193</v>
       </c>
       <c r="S49" s="13" t="n">
-        <v>362193</v>
+        <v>687240</v>
       </c>
       <c r="T49" s="13" t="n">
-        <v>687240</v>
+        <v>353857</v>
       </c>
       <c r="U49" s="13" t="n">
-        <v>353857</v>
+        <v>271184</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>271184</v>
+        <v>202115</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>202115</v>
+        <v>491817</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>491817</v>
+        <v>700992</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>700992</v>
+        <v>688932</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>688932</v>
+        <v>548676</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>548676</v>
+        <v>557748</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>557748</v>
+        <v>1048644</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>1048644</v>
+        <v>1078200</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>1078200</v>
+        <v>1220150</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>1220150</v>
+        <v>1124516</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>1124516</v>
+        <v>568928</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>568928</v>
+        <v>873540</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>873540</v>
+        <v>772110</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>772110</v>
+        <v>905815</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>905815</v>
+        <v>1608738</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>1608738</v>
+        <v>1722291</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>1722291</v>
+        <v>1919442</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>1919442</v>
+        <v>2656071</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>2656071</v>
+        <v>574217</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>574217</v>
+        <v>1531367</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>1531367</v>
+        <v>2295672</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>2295672</v>
+        <v>2558034</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>2558034</v>
+        <v>1662248</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>1662248</v>
+        <v>1233796</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>1233796</v>
+        <v>2722588</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>2722588</v>
+        <v>1697357</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>1697357</v>
+        <v>1631869</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>1631869</v>
+        <v>436041</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>436041</v>
+        <v>2226905</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>2226905</v>
+        <v>2153163</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>2153163</v>
+        <v>801816</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>801816</v>
+        <v>1584281</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>1584281</v>
+        <v>1299045</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8102,122 +8102,122 @@
       <c r="O50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P50" s="16" t="s">
-        <v>57</v>
+      <c r="P50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Q50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="16" t="n">
-        <v>0</v>
+        <v>9127</v>
       </c>
       <c r="S50" s="16" t="n">
-        <v>9127</v>
+        <v>48676</v>
       </c>
       <c r="T50" s="16" t="n">
-        <v>48676</v>
+        <v>286241</v>
       </c>
       <c r="U50" s="16" t="n">
-        <v>286241</v>
+        <v>162151</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>162151</v>
+        <v>293764</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>293764</v>
+        <v>420303</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>420303</v>
+        <v>337437</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>337437</v>
+        <v>331879</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>331879</v>
+        <v>558464</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>558464</v>
+        <v>284015</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>284015</v>
+        <v>268893</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>268893</v>
+        <v>571384</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>571384</v>
+        <v>150207</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>150207</v>
+        <v>593939</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>593939</v>
+        <v>546193</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>546193</v>
+        <v>462553</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>462553</v>
+        <v>201313</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>201313</v>
+        <v>488421</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>488421</v>
+        <v>203870</v>
       </c>
       <c r="AK50" s="16" t="n">
-        <v>203870</v>
+        <v>703418</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>703418</v>
+        <v>1623437</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>1623437</v>
+        <v>994576</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>994576</v>
+        <v>817398</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>817398</v>
+        <v>515416</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>515416</v>
+        <v>69235</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>69235</v>
+        <v>444408</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>444408</v>
+        <v>1199981</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>1199981</v>
+        <v>669400</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>669400</v>
+        <v>305549</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>305549</v>
+        <v>721480</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>721480</v>
+        <v>82795</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>82795</v>
+        <v>420185</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>420185</v>
+        <v>777523</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>777523</v>
+        <v>300511</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>300511</v>
+        <v>333189</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>333189</v>
+        <v>451018</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>451018</v>
+        <v>154058</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,38 +8339,38 @@
       <c r="AO51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>57</v>
+      <c r="AP51" s="13" t="n">
+        <v>1269420</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>1269420</v>
+        <v>4264982</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>4264982</v>
+        <v>4739842</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>4739842</v>
+        <v>1960084</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>1960084</v>
+        <v>2730094</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>2730094</v>
+        <v>6664404</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>6664404</v>
+        <v>6138565</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>6138565</v>
+        <v>5112159</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>5112159</v>
+        <v>2488596</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>2488596</v>
+        <v>8578652</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>8578652</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="13" t="n">
         <v>0</v>
@@ -8498,44 +8498,44 @@
       <c r="AO52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP52" s="16" t="s">
-        <v>57</v>
+      <c r="AP52" s="16" t="n">
+        <v>3432</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>3432</v>
+        <v>28174</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>28174</v>
+        <v>309256</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>309256</v>
+        <v>47921</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>47921</v>
+        <v>278908</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>278908</v>
+        <v>337292</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>337292</v>
+        <v>24489</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>24489</v>
+        <v>284456</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>284456</v>
+        <v>544052</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>544052</v>
+        <v>155889</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>155889</v>
+        <v>222872</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>222872</v>
+        <v>200136</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>200136</v>
+        <v>68647</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,14 +8687,14 @@
       <c r="AY53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ53" s="13" t="s">
-        <v>57</v>
+      <c r="AZ53" s="13" t="n">
+        <v>2182595</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>2182595</v>
+        <v>3716037</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>3716037</v>
+        <v>893570</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8846,14 +8846,14 @@
       <c r="AY54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AZ54" s="16" t="s">
-        <v>57</v>
+      <c r="AZ54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>0</v>
+        <v>3658035</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>3658035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8960,8 +8960,8 @@
       <c r="Q56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R56" s="20" t="s">
-        <v>57</v>
+      <c r="R56" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S56" s="23" t="n">
         <v>0</v>
@@ -9176,8 +9176,8 @@
       <c r="Q58" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="20" t="s">
-        <v>57</v>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S58" s="23" t="n">
         <v>0</v>
@@ -9392,8 +9392,8 @@
       <c r="Q60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R60" s="13" t="s">
-        <v>57</v>
+      <c r="R60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S60" s="13" t="n">
         <v>0</v>
@@ -9511,154 +9511,154 @@
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22" t="n">
-        <v>141214</v>
+        <v>354787</v>
       </c>
       <c r="F61" s="22" t="n">
-        <v>354787</v>
+        <v>309182</v>
       </c>
       <c r="G61" s="22" t="n">
-        <v>309182</v>
+        <v>311131</v>
       </c>
       <c r="H61" s="22" t="n">
-        <v>311131</v>
+        <v>318823</v>
       </c>
       <c r="I61" s="22" t="n">
-        <v>318823</v>
+        <v>36053</v>
       </c>
       <c r="J61" s="22" t="n">
-        <v>36053</v>
+        <v>329887</v>
       </c>
       <c r="K61" s="22" t="n">
-        <v>329887</v>
+        <v>380193</v>
       </c>
       <c r="L61" s="22" t="n">
-        <v>380193</v>
+        <v>562544</v>
       </c>
       <c r="M61" s="22" t="n">
-        <v>562544</v>
+        <v>202735</v>
       </c>
       <c r="N61" s="22" t="n">
-        <v>202735</v>
+        <v>145366</v>
       </c>
       <c r="O61" s="22" t="n">
-        <v>145366</v>
+        <v>234795</v>
       </c>
       <c r="P61" s="22" t="n">
-        <v>234795</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61" s="22" t="n">
-        <v>3</v>
+        <v>1400892</v>
       </c>
       <c r="S61" s="22" t="n">
-        <v>1400892</v>
+        <v>935975</v>
       </c>
       <c r="T61" s="22" t="n">
-        <v>935975</v>
+        <v>1717767</v>
       </c>
       <c r="U61" s="22" t="n">
-        <v>1717767</v>
+        <v>552028</v>
       </c>
       <c r="V61" s="22" t="n">
-        <v>552028</v>
+        <v>898446</v>
       </c>
       <c r="W61" s="22" t="n">
-        <v>898446</v>
+        <v>4425858</v>
       </c>
       <c r="X61" s="22" t="n">
-        <v>4425858</v>
+        <v>1513703</v>
       </c>
       <c r="Y61" s="22" t="n">
-        <v>1513703</v>
+        <v>3537182</v>
       </c>
       <c r="Z61" s="22" t="n">
-        <v>3537182</v>
+        <v>1835549</v>
       </c>
       <c r="AA61" s="22" t="n">
-        <v>1835549</v>
+        <v>3887982</v>
       </c>
       <c r="AB61" s="22" t="n">
-        <v>3887982</v>
+        <v>1318015</v>
       </c>
       <c r="AC61" s="22" t="n">
-        <v>1318015</v>
+        <v>1682457</v>
       </c>
       <c r="AD61" s="22" t="n">
-        <v>1682457</v>
+        <v>1397389</v>
       </c>
       <c r="AE61" s="22" t="n">
-        <v>1397389</v>
+        <v>2828332</v>
       </c>
       <c r="AF61" s="22" t="n">
-        <v>2828332</v>
+        <v>5061524</v>
       </c>
       <c r="AG61" s="22" t="n">
-        <v>5061524</v>
+        <v>3669555</v>
       </c>
       <c r="AH61" s="22" t="n">
-        <v>3669555</v>
+        <v>2399626</v>
       </c>
       <c r="AI61" s="22" t="n">
-        <v>2399626</v>
+        <v>4312475</v>
       </c>
       <c r="AJ61" s="22" t="n">
-        <v>4312475</v>
+        <v>4435339</v>
       </c>
       <c r="AK61" s="22" t="n">
-        <v>4435339</v>
+        <v>2476608</v>
       </c>
       <c r="AL61" s="22" t="n">
-        <v>2476608</v>
+        <v>3665459</v>
       </c>
       <c r="AM61" s="22" t="n">
-        <v>3665459</v>
+        <v>8201950</v>
       </c>
       <c r="AN61" s="22" t="n">
-        <v>8201950</v>
+        <v>1853251</v>
       </c>
       <c r="AO61" s="22" t="n">
-        <v>1853251</v>
+        <v>20289972</v>
       </c>
       <c r="AP61" s="22" t="n">
-        <v>20289972</v>
+        <v>3637759</v>
       </c>
       <c r="AQ61" s="22" t="n">
-        <v>3637759</v>
+        <v>7295598</v>
       </c>
       <c r="AR61" s="22" t="n">
-        <v>7295598</v>
+        <v>7911327</v>
       </c>
       <c r="AS61" s="22" t="n">
-        <v>7911327</v>
+        <v>3911201</v>
       </c>
       <c r="AT61" s="22" t="n">
-        <v>3911201</v>
+        <v>6037139</v>
       </c>
       <c r="AU61" s="22" t="n">
-        <v>6037139</v>
+        <v>9420533</v>
       </c>
       <c r="AV61" s="22" t="n">
-        <v>9420533</v>
+        <v>7877718</v>
       </c>
       <c r="AW61" s="22" t="n">
-        <v>7877718</v>
+        <v>6252841</v>
       </c>
       <c r="AX61" s="22" t="n">
-        <v>6252841</v>
+        <v>6037076</v>
       </c>
       <c r="AY61" s="22" t="n">
-        <v>6037076</v>
+        <v>11188215</v>
       </c>
       <c r="AZ61" s="22" t="n">
-        <v>11188215</v>
+        <v>3540472</v>
       </c>
       <c r="BA61" s="22" t="n">
-        <v>3540472</v>
+        <v>9609507</v>
       </c>
       <c r="BB61" s="22" t="n">
-        <v>9609507</v>
+        <v>2415320</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,85 +10137,85 @@
         <v>0</v>
       </c>
       <c r="P68" s="13" t="n">
-        <v>0</v>
+        <v>24601837</v>
       </c>
       <c r="Q68" s="13" t="n">
-        <v>24601837</v>
+        <v>25879708</v>
       </c>
       <c r="R68" s="13" t="n">
-        <v>25879708</v>
+        <v>27761336</v>
       </c>
       <c r="S68" s="13" t="n">
-        <v>27761336</v>
+        <v>29077015</v>
       </c>
       <c r="T68" s="13" t="n">
-        <v>29077015</v>
+        <v>30830451</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>30830451</v>
+        <v>32574956</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>32574956</v>
+        <v>35548444</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>35548444</v>
+        <v>39980785</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>39980785</v>
+        <v>46605861</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>46605861</v>
+        <v>51329449</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>51329449</v>
+        <v>50685730</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>50685730</v>
-      </c>
-      <c r="AB68" s="13" t="n">
         <v>51451187</v>
       </c>
-      <c r="AC68" s="13" t="s">
-        <v>57</v>
+      <c r="AB68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC68" s="13" t="n">
+        <v>65182000</v>
       </c>
       <c r="AD68" s="13" t="n">
-        <v>65182000</v>
+        <v>66940000</v>
       </c>
       <c r="AE68" s="13" t="n">
-        <v>66940000</v>
+        <v>49422909</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>49422909</v>
+        <v>57013525</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>57013525</v>
+        <v>64476920</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>64476920</v>
+        <v>69333219</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>69333219</v>
+        <v>78625806</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>78625806</v>
-      </c>
-      <c r="AK68" s="13" t="n">
         <v>92424638</v>
       </c>
-      <c r="AL68" s="13" t="s">
-        <v>57</v>
+      <c r="AK68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL68" s="13" t="n">
+        <v>91021448</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>91021448</v>
+        <v>182064113</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>182064113</v>
+        <v>147770807</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>147770807</v>
-      </c>
-      <c r="AP68" s="13" t="n">
         <v>144426877</v>
+      </c>
+      <c r="AP68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ68" s="13" t="s">
         <v>57</v>
@@ -10263,25 +10263,25 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="n">
-        <v>16082969</v>
+        <v>13130435</v>
       </c>
       <c r="F69" s="16" t="n">
-        <v>13130435</v>
+        <v>12903846</v>
       </c>
       <c r="G69" s="16" t="n">
-        <v>12903846</v>
+        <v>12308511</v>
       </c>
       <c r="H69" s="16" t="n">
-        <v>12308511</v>
+        <v>12250000</v>
       </c>
       <c r="I69" s="16" t="n">
-        <v>12250000</v>
+        <v>0</v>
       </c>
       <c r="J69" s="16" t="n">
-        <v>0</v>
+        <v>12816667</v>
       </c>
       <c r="K69" s="16" t="n">
-        <v>12816667</v>
+        <v>0</v>
       </c>
       <c r="L69" s="16" t="n">
         <v>0</v>
@@ -10296,85 +10296,85 @@
         <v>0</v>
       </c>
       <c r="P69" s="16" t="n">
-        <v>0</v>
+        <v>14316384</v>
       </c>
       <c r="Q69" s="16" t="n">
-        <v>14316384</v>
+        <v>35004747</v>
       </c>
       <c r="R69" s="16" t="n">
-        <v>35004747</v>
+        <v>16485380</v>
       </c>
       <c r="S69" s="16" t="n">
-        <v>16485380</v>
+        <v>13833773</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>13833773</v>
+        <v>12535286</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>12535286</v>
+        <v>15683267</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>15683267</v>
+        <v>15570588</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>15570588</v>
+        <v>19879056</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>19879056</v>
+        <v>24345455</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>24345455</v>
+        <v>26695652</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>26695652</v>
-      </c>
-      <c r="AA69" s="16" t="n">
         <v>26345345</v>
       </c>
-      <c r="AB69" s="16" t="s">
-        <v>57</v>
+      <c r="AA69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB69" s="16" t="n">
+        <v>17071429</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>17071429</v>
+        <v>23500000</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>23500000</v>
+        <v>28444444</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>28444444</v>
+        <v>43928378</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>43928378</v>
+        <v>47023669</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>47023669</v>
+        <v>56777778</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>56777778</v>
+        <v>68333333</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>68333333</v>
+        <v>65182836</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>65182836</v>
+        <v>76552381</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>76552381</v>
+        <v>71187413</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>71187413</v>
+        <v>90376860</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>90376860</v>
-      </c>
-      <c r="AN69" s="16" t="n">
         <v>89869565</v>
       </c>
-      <c r="AO69" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP69" s="16" t="n">
+      <c r="AN69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO69" s="16" t="n">
         <v>139711268</v>
+      </c>
+      <c r="AP69" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ69" s="16" t="s">
         <v>57</v>
@@ -10422,64 +10422,64 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="n">
-        <v>6125011</v>
+        <v>14401997</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>14401997</v>
+        <v>16080006</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>16080006</v>
+        <v>16079992</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>16079992</v>
+        <v>16989987</v>
       </c>
       <c r="I70" s="13" t="n">
-        <v>16989987</v>
+        <v>16990104</v>
       </c>
       <c r="J70" s="13" t="n">
-        <v>16990104</v>
+        <v>16990013</v>
       </c>
       <c r="K70" s="13" t="n">
-        <v>16990013</v>
+        <v>15197993</v>
       </c>
       <c r="L70" s="13" t="n">
-        <v>15197993</v>
+        <v>18352005</v>
       </c>
       <c r="M70" s="13" t="n">
-        <v>18352005</v>
+        <v>18352041</v>
       </c>
       <c r="N70" s="13" t="n">
-        <v>18352041</v>
+        <v>18351976</v>
       </c>
       <c r="O70" s="13" t="n">
-        <v>18351976</v>
+        <v>18351962</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>18351962</v>
+        <v>18352180</v>
       </c>
       <c r="Q70" s="13" t="n">
-        <v>18352180</v>
+        <v>18352015</v>
       </c>
       <c r="R70" s="13" t="n">
-        <v>18352015</v>
+        <v>22229976</v>
       </c>
       <c r="S70" s="13" t="n">
-        <v>22229976</v>
+        <v>22229985</v>
       </c>
       <c r="T70" s="13" t="n">
-        <v>22229985</v>
+        <v>22229991</v>
       </c>
       <c r="U70" s="13" t="n">
-        <v>22229991</v>
+        <v>22230019</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>22230019</v>
+        <v>22229982</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>22229982</v>
+        <v>22230022</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>22230022</v>
+        <v>36000000</v>
       </c>
       <c r="Y70" s="13" t="n">
         <v>36000000</v>
@@ -10497,7 +10497,7 @@
         <v>36000000</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>36000000</v>
+        <v>46000000</v>
       </c>
       <c r="AE70" s="13" t="n">
         <v>46000000</v>
@@ -10512,64 +10512,64 @@
         <v>46000000</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>46000000</v>
+        <v>46066979</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>46066979</v>
+        <v>68299992</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>68299992</v>
+        <v>90228992</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>90228992</v>
+        <v>90229023</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>90229023</v>
+        <v>90228998</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>90228998</v>
+        <v>90228944</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>90228944</v>
+        <v>90229024</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>90229024</v>
+        <v>145112010</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>145112010</v>
+        <v>145111981</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>145111981</v>
+        <v>116648982</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>116648982</v>
+        <v>116648955</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>116648955</v>
+        <v>116649015</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>116649015</v>
+        <v>108603046</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>108603046</v>
+        <v>108603021</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>108603021</v>
+        <v>108602989</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>108602989</v>
+        <v>108603024</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>108603024</v>
+        <v>108602996</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>108602996</v>
+        <v>108603007</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>108603007</v>
+        <v>81216025</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>81216025</v>
+        <v>68717996</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10613,122 +10613,122 @@
       <c r="O71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="16" t="s">
-        <v>57</v>
+      <c r="P71" s="16" t="n">
+        <v>20130922</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>20130922</v>
+        <v>23831170</v>
       </c>
       <c r="R71" s="16" t="n">
-        <v>23831170</v>
+        <v>26077143</v>
       </c>
       <c r="S71" s="16" t="n">
-        <v>26077143</v>
+        <v>25740878</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>25740878</v>
+        <v>25250618</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>25250618</v>
+        <v>26259271</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>26259271</v>
+        <v>29739218</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>29739218</v>
+        <v>33120804</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>33120804</v>
+        <v>38458742</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>38458742</v>
+        <v>41761545</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>41761545</v>
+        <v>46823510</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>46823510</v>
+        <v>47155072</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>47155072</v>
+        <v>48871865</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>48871865</v>
+        <v>54277952</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>54277952</v>
+        <v>48469506</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>48469506</v>
+        <v>54907923</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>54907923</v>
+        <v>56413241</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>56413241</v>
+        <v>65120794</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>65120794</v>
+        <v>78179806</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>78179806</v>
+        <v>82073769</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>82073769</v>
+        <v>95848613</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>95848613</v>
+        <v>123406667</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>123406667</v>
+        <v>162489941</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>162489941</v>
+        <v>187126246</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>187126246</v>
+        <v>182658771</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>182658771</v>
+        <v>151548368</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>151548368</v>
+        <v>153855556</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>153855556</v>
+        <v>158603854</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>158603854</v>
+        <v>140628267</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>140628267</v>
+        <v>120961330</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>120961330</v>
+        <v>116577261</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>116577261</v>
+        <v>121461279</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>121461279</v>
+        <v>139620573</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>139620573</v>
+        <v>139411082</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>139411082</v>
+        <v>128388871</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>128388871</v>
+        <v>123362479</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>123362479</v>
+        <v>110841317</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>110841317</v>
+        <v>91763581</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>91763581</v>
+        <v>85020971</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10850,38 +10850,38 @@
       <c r="AO72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP72" s="13" t="s">
-        <v>57</v>
+      <c r="AP72" s="13" t="n">
+        <v>133848587</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>133848587</v>
+        <v>135719395</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>135719395</v>
+        <v>139202408</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>139202408</v>
+        <v>134482607</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>134482607</v>
+        <v>138808928</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>138808928</v>
+        <v>135372821</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>135372821</v>
+        <v>143746839</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>143746839</v>
+        <v>137927882</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>137927882</v>
+        <v>146310541</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>146310541</v>
-      </c>
-      <c r="AZ72" s="13" t="n">
         <v>126584802</v>
+      </c>
+      <c r="AZ72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BA72" s="13" t="s">
         <v>57</v>
@@ -11009,44 +11009,44 @@
       <c r="AO73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP73" s="16" t="s">
-        <v>57</v>
+      <c r="AP73" s="16" t="n">
+        <v>163428571</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>163428571</v>
+        <v>153119565</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>153119565</v>
+        <v>179382831</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>179382831</v>
+        <v>174258182</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>174258182</v>
+        <v>193686111</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>193686111</v>
+        <v>199463040</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>199463040</v>
+        <v>211112069</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>211112069</v>
+        <v>209466863</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>209466863</v>
+        <v>203994001</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>203994001</v>
+        <v>202190661</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>202190661</v>
+        <v>191800344</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>191800344</v>
+        <v>210891465</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>210891465</v>
+        <v>154262921</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11198,14 +11198,14 @@
       <c r="AY74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ74" s="13" t="s">
-        <v>57</v>
+      <c r="AZ74" s="13" t="n">
+        <v>139802396</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>139802396</v>
+        <v>165311491</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>165311491</v>
+        <v>125872658</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,11 +11360,11 @@
       <c r="AZ75" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA75" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB75" s="16" t="n">
+      <c r="BA75" s="16" t="n">
         <v>119935574</v>
+      </c>
+      <c r="BB75" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
